--- a/capiq_data/in_process_data/IQ286798.xlsx
+++ b/capiq_data/in_process_data/IQ286798.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558CCC16-B84D-4996-8A14-213B01039FD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756AC60-664A-496C-8FFA-69A1DDF8C53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9b0284c6-9fd4-4499-8fb9-7cbe720a7853"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"e6ed943e-ba13-407e-bc3c-d966129beccd"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-139.18899999999999</v>
+        <v>68.001999999999995</v>
       </c>
       <c r="D2">
-        <v>1388.067</v>
+        <v>1019.683</v>
       </c>
       <c r="E2">
-        <v>321.89400000000001</v>
+        <v>236.65</v>
       </c>
       <c r="F2">
-        <v>539.19600000000003</v>
+        <v>465.10500000000002</v>
       </c>
       <c r="G2">
-        <v>1455.645</v>
+        <v>795.64400000000001</v>
       </c>
       <c r="H2">
-        <v>18951.848000000002</v>
+        <v>10734.601000000001</v>
       </c>
       <c r="I2">
-        <v>167.084</v>
+        <v>65.316999999999993</v>
       </c>
       <c r="J2">
-        <v>12047.698</v>
+        <v>5348.32</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1246.221</v>
+        <v>1233.2049999999999</v>
       </c>
       <c r="O2">
-        <v>16019.686</v>
+        <v>8352.1560000000009</v>
       </c>
       <c r="P2">
-        <v>12047.698</v>
+        <v>5869.6279999999997</v>
       </c>
       <c r="Q2">
-        <v>-53.792999999999999</v>
+        <v>16.696000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>45000</v>
+        <v>39000</v>
       </c>
       <c r="T2">
-        <v>2932.1619999999998</v>
+        <v>2382.4450000000002</v>
       </c>
       <c r="U2">
-        <v>498.964</v>
+        <v>227.96799999999999</v>
       </c>
       <c r="V2">
-        <v>123.616</v>
+        <v>218.09700000000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="X2">
-        <v>-12.252000000000001</v>
+        <v>-167.19200000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-159.941</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-139.18899999999999</v>
+        <v>68.001999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-89.870999999999995</v>
+        <v>83.894000000000005</v>
       </c>
       <c r="D3">
-        <v>1426.5630000000001</v>
+        <v>1057.221</v>
       </c>
       <c r="E3">
-        <v>317.97399999999999</v>
+        <v>208.786</v>
       </c>
       <c r="F3">
-        <v>564.89700000000005</v>
+        <v>492.21600000000001</v>
       </c>
       <c r="G3">
-        <v>1366.4110000000001</v>
+        <v>768.46299999999997</v>
       </c>
       <c r="H3">
-        <v>18760.348999999998</v>
+        <v>10658.575999999999</v>
       </c>
       <c r="I3">
-        <v>138.53299999999999</v>
+        <v>59.012999999999998</v>
       </c>
       <c r="J3">
-        <v>12081.108</v>
+        <v>5337.47</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1402.87</v>
+        <v>-519.95799999999997</v>
       </c>
       <c r="N3">
-        <v>1172.44</v>
+        <v>1078.287</v>
       </c>
       <c r="O3">
-        <v>15841.187</v>
+        <v>8194.4629999999997</v>
       </c>
       <c r="P3">
-        <v>12081.108</v>
+        <v>5750.5140000000001</v>
       </c>
       <c r="Q3">
-        <v>-67.688999999999993</v>
+        <v>31.414000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2919.1619999999998</v>
+        <v>2464.1129999999998</v>
       </c>
       <c r="U3">
-        <v>431.27499999999998</v>
+        <v>259.38200000000001</v>
       </c>
       <c r="V3">
-        <v>23.978000000000002</v>
+        <v>217.46899999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>18.87</v>
+        <v>-130.98099999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-75.703999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-89.870999999999995</v>
+        <v>83.894000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>3441.9850000000001</v>
+        <v>76.585999999999999</v>
       </c>
       <c r="D4">
-        <v>1716.5029999999999</v>
+        <v>1041.867</v>
       </c>
       <c r="E4">
-        <v>370.07499999999999</v>
+        <v>188.69300000000001</v>
       </c>
       <c r="F4">
-        <v>675.37699999999995</v>
+        <v>483.64499999999998</v>
       </c>
       <c r="G4">
-        <v>1793.28</v>
+        <v>690.86</v>
       </c>
       <c r="H4">
-        <v>27216.19</v>
+        <v>10550.437</v>
       </c>
       <c r="I4">
-        <v>179.703</v>
+        <v>57.658999999999999</v>
       </c>
       <c r="J4">
-        <v>12630.290999999999</v>
+        <v>5324.5510000000004</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1585.0250000000001</v>
+        <v>907.90300000000002</v>
       </c>
       <c r="O4">
-        <v>17170.916000000001</v>
+        <v>8004.2070000000003</v>
       </c>
       <c r="P4">
-        <v>12630.290999999999</v>
+        <v>5553.8149999999996</v>
       </c>
       <c r="Q4">
-        <v>490.27800000000002</v>
+        <v>-44.515999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>10045.273999999999</v>
+        <v>2546.23</v>
       </c>
       <c r="U4">
-        <v>921.553</v>
+        <v>214.86600000000001</v>
       </c>
       <c r="V4">
-        <v>272.94499999999999</v>
+        <v>233.821</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-114.10299999999999</v>
+        <v>-194.60599999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-24.276</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3441.9850000000001</v>
+        <v>76.585999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-123.786</v>
+        <v>-14.353</v>
       </c>
       <c r="D5">
-        <v>2146.4430000000002</v>
+        <v>983.98</v>
       </c>
       <c r="E5">
-        <v>463.40699999999998</v>
+        <v>145.10300000000001</v>
       </c>
       <c r="F5">
-        <v>790.96400000000006</v>
+        <v>411.35500000000002</v>
       </c>
       <c r="G5">
-        <v>2721.8069999999998</v>
+        <v>616.25400000000002</v>
       </c>
       <c r="H5">
-        <v>27853.023000000001</v>
+        <v>10430.486999999999</v>
       </c>
       <c r="I5">
-        <v>158.477</v>
+        <v>66.037999999999997</v>
       </c>
       <c r="J5">
-        <v>13099.074000000001</v>
+        <v>5331.8990000000003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2015.347</v>
+        <v>833.88499999999999</v>
       </c>
       <c r="O5">
-        <v>17911.417000000001</v>
+        <v>7947.5389999999998</v>
       </c>
       <c r="P5">
-        <v>13450.682000000001</v>
+        <v>5474.8450000000003</v>
       </c>
       <c r="Q5">
-        <v>893.572</v>
+        <v>-81.426000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9941.6059999999998</v>
+        <v>2482.9479999999999</v>
       </c>
       <c r="U5">
-        <v>1815.125</v>
+        <v>133.44</v>
       </c>
       <c r="V5">
-        <v>184.11699999999999</v>
+        <v>156.886</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>804.81</v>
+        <v>-138.41499999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4.76</v>
+        <v>-14.25</v>
       </c>
       <c r="AA5">
-        <v>-123.786</v>
+        <v>-14.353</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>-113.691</v>
+        <v>23.687999999999999</v>
       </c>
       <c r="D6">
-        <v>2208.596</v>
+        <v>889.73400000000004</v>
       </c>
       <c r="E6">
-        <v>491.73</v>
+        <v>144.374</v>
       </c>
       <c r="F6">
-        <v>791.71299999999997</v>
+        <v>376.72199999999998</v>
       </c>
       <c r="G6">
-        <v>2812.72</v>
+        <v>661.92700000000002</v>
       </c>
       <c r="H6">
-        <v>27766.276000000002</v>
+        <v>10497.442999999999</v>
       </c>
       <c r="I6">
-        <v>170.994</v>
+        <v>75.787000000000006</v>
       </c>
       <c r="J6">
-        <v>13470.166999999999</v>
+        <v>5295.3130000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,161 +1224,161 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1744.7639999999999</v>
+        <v>887.91</v>
       </c>
       <c r="O6">
-        <v>17884.054</v>
+        <v>7986.7430000000004</v>
       </c>
       <c r="P6">
-        <v>13470.166999999999</v>
+        <v>5463.3919999999998</v>
       </c>
       <c r="Q6">
-        <v>50.787999999999997</v>
+        <v>75.531000000000006</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>50700</v>
+        <v>34000</v>
       </c>
       <c r="T6">
-        <v>9882.2219999999998</v>
+        <v>2510.6999999999998</v>
       </c>
       <c r="U6">
-        <v>1865.913</v>
+        <v>208.971</v>
       </c>
       <c r="V6">
-        <v>194.08600000000001</v>
+        <v>187.70699999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>2.3450000000000002</v>
+        <v>1.327</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-22.079000000000001</v>
+        <v>-24</v>
       </c>
       <c r="AA6">
-        <v>-113.691</v>
+        <v>23.687999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-217.25299999999999</v>
+        <v>81.956000000000003</v>
       </c>
       <c r="D7">
-        <v>2197.0509999999999</v>
+        <v>950.005</v>
       </c>
       <c r="E7">
-        <v>477.48399999999998</v>
+        <v>136.864</v>
       </c>
       <c r="F7">
-        <v>789.19</v>
+        <v>452.76400000000001</v>
       </c>
       <c r="G7">
-        <v>2593.6770000000001</v>
+        <v>638.005</v>
       </c>
       <c r="H7">
-        <v>27391.027999999998</v>
+        <v>10466.984</v>
       </c>
       <c r="I7">
-        <v>163.626</v>
+        <v>71.662000000000006</v>
       </c>
       <c r="J7">
-        <v>13359.953</v>
+        <v>5299.7259999999997</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-192.1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-2284.1280000000002</v>
+        <v>-151.5</v>
       </c>
       <c r="N7">
-        <v>1892.3869999999999</v>
+        <v>715.1</v>
       </c>
       <c r="O7">
-        <v>17899.793000000001</v>
+        <v>7837.9359999999997</v>
       </c>
       <c r="P7">
-        <v>13359.953</v>
+        <v>5310.652</v>
       </c>
       <c r="Q7">
-        <v>-231.02099999999999</v>
+        <v>3.302</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>9491.2350000000006</v>
+        <v>2629.0479999999998</v>
       </c>
       <c r="U7">
-        <v>1634.8920000000001</v>
+        <v>212.273</v>
       </c>
       <c r="V7">
-        <v>291.69400000000002</v>
+        <v>227.947</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-412.92200000000003</v>
+        <v>-126.804</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>4.2069999999999999</v>
+        <v>-36.814</v>
       </c>
       <c r="AA7">
-        <v>-217.25299999999999</v>
+        <v>81.956000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-145.452</v>
+        <v>101.875</v>
       </c>
       <c r="D8">
-        <v>2232.8270000000002</v>
+        <v>970.92399999999998</v>
       </c>
       <c r="E8">
-        <v>478.58800000000002</v>
+        <v>130.14500000000001</v>
       </c>
       <c r="F8">
-        <v>847.51700000000005</v>
+        <v>465.303</v>
       </c>
       <c r="G8">
-        <v>2677.4169999999999</v>
+        <v>619.32100000000003</v>
       </c>
       <c r="H8">
-        <v>27263.008000000002</v>
+        <v>10424.206</v>
       </c>
       <c r="I8">
-        <v>171.87799999999999</v>
+        <v>66.194000000000003</v>
       </c>
       <c r="J8">
-        <v>13225.319</v>
+        <v>5172.4350000000004</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1929.384</v>
+        <v>717.202</v>
       </c>
       <c r="O8">
-        <v>17850.800999999999</v>
+        <v>7705.0060000000003</v>
       </c>
       <c r="P8">
-        <v>13366.993</v>
+        <v>5179.415</v>
       </c>
       <c r="Q8">
-        <v>97.028999999999996</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9412.2070000000003</v>
+        <v>2719.2</v>
       </c>
       <c r="U8">
-        <v>1731.921</v>
+        <v>213.2</v>
       </c>
       <c r="V8">
-        <v>220.56200000000001</v>
+        <v>244.714</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-9.1920000000000002</v>
+        <v>-173.446</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-12.119</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>-145.452</v>
+        <v>101.875</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-181.15899999999999</v>
+        <v>69.56</v>
       </c>
       <c r="D9">
-        <v>2167.2959999999998</v>
+        <v>948.92</v>
       </c>
       <c r="E9">
-        <v>412.39</v>
+        <v>114.767</v>
       </c>
       <c r="F9">
-        <v>792.42399999999998</v>
+        <v>439.40199999999999</v>
       </c>
       <c r="G9">
-        <v>3347.817</v>
+        <v>520.66099999999994</v>
       </c>
       <c r="H9">
-        <v>27831.361000000001</v>
+        <v>10434.637000000001</v>
       </c>
       <c r="I9">
-        <v>201.15</v>
+        <v>62.914999999999999</v>
       </c>
       <c r="J9">
-        <v>13825.450999999999</v>
+        <v>5069.2430000000004</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2025.854</v>
+        <v>737.77300000000002</v>
       </c>
       <c r="O9">
-        <v>18565.858</v>
+        <v>7676.424</v>
       </c>
       <c r="P9">
-        <v>13825.450999999999</v>
+        <v>5075.9769999999999</v>
       </c>
       <c r="Q9">
-        <v>711.23800000000006</v>
+        <v>-74.001000000000005</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9265.5030000000006</v>
+        <v>2758.2130000000002</v>
       </c>
       <c r="U9">
-        <v>2443.1590000000001</v>
+        <v>139.19900000000001</v>
       </c>
       <c r="V9">
-        <v>375.00599999999997</v>
+        <v>180.434</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>434.41199999999998</v>
+        <v>-138.09</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>2.2469999999999999</v>
+        <v>-43.5</v>
       </c>
       <c r="AA9">
-        <v>-181.15899999999999</v>
+        <v>69.56</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-1223.827</v>
+        <v>39.043999999999997</v>
       </c>
       <c r="D10">
-        <v>2206.0729999999999</v>
+        <v>922.399</v>
       </c>
       <c r="E10">
-        <v>443.67700000000002</v>
+        <v>139.935</v>
       </c>
       <c r="F10">
-        <v>810.43100000000004</v>
+        <v>402.25</v>
       </c>
       <c r="G10">
-        <v>2507.0920000000001</v>
+        <v>589.82899999999995</v>
       </c>
       <c r="H10">
-        <v>26284.738000000001</v>
+        <v>10504.985000000001</v>
       </c>
       <c r="I10">
-        <v>199.62</v>
+        <v>69.959000000000003</v>
       </c>
       <c r="J10">
-        <v>13589.282999999999</v>
+        <v>5213.7780000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1925.671</v>
+        <v>750.06799999999998</v>
       </c>
       <c r="O10">
-        <v>18168.722000000002</v>
+        <v>7840.8410000000003</v>
       </c>
       <c r="P10">
-        <v>13589.282999999999</v>
+        <v>5220.7340000000004</v>
       </c>
       <c r="Q10">
-        <v>-899.65</v>
+        <v>72.034999999999997</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>50050</v>
+        <v>36000</v>
       </c>
       <c r="T10">
-        <v>8116.0159999999996</v>
+        <v>2664.1439999999998</v>
       </c>
       <c r="U10">
-        <v>1543.509</v>
+        <v>211.23400000000001</v>
       </c>
       <c r="V10">
-        <v>22.088999999999999</v>
+        <v>174.863</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-799.25699999999995</v>
+        <v>-16.145</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-16.943000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1223.827</v>
+        <v>39.043999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>6.5460000000000003</v>
+        <v>51.003</v>
       </c>
       <c r="D11">
-        <v>2261.9119999999998</v>
+        <v>951.87400000000002</v>
       </c>
       <c r="E11">
-        <v>475.58100000000002</v>
+        <v>134.58600000000001</v>
       </c>
       <c r="F11">
-        <v>858.553</v>
+        <v>422.89600000000002</v>
       </c>
       <c r="G11">
-        <v>2439.2449999999999</v>
+        <v>527.96199999999999</v>
       </c>
       <c r="H11">
-        <v>26057.874</v>
+        <v>10431.335999999999</v>
       </c>
       <c r="I11">
-        <v>178.435</v>
+        <v>75.168000000000006</v>
       </c>
       <c r="J11">
-        <v>13690.699000000001</v>
+        <v>5184.2359999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-2690</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-34.054000000000002</v>
       </c>
       <c r="N11">
-        <v>1870.9880000000001</v>
+        <v>719.90099999999995</v>
       </c>
       <c r="O11">
-        <v>18178.821</v>
+        <v>7778.2719999999999</v>
       </c>
       <c r="P11">
-        <v>13690.699000000001</v>
+        <v>5191.5919999999996</v>
       </c>
       <c r="Q11">
-        <v>-62.872</v>
+        <v>-39.1</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7879.0529999999999</v>
+        <v>2653.0639999999999</v>
       </c>
       <c r="U11">
-        <v>1480.6369999999999</v>
+        <v>172.13399999999999</v>
       </c>
       <c r="V11">
-        <v>194.65600000000001</v>
+        <v>147.65600000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-152.52199999999999</v>
+        <v>-103.30500000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-6.3230000000000004</v>
+        <v>-1.5</v>
       </c>
       <c r="AA11">
-        <v>6.5460000000000003</v>
+        <v>51.003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-92.957999999999998</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2388.5239999999999</v>
+        <v>974.11699999999996</v>
       </c>
       <c r="E12">
-        <v>440.32600000000002</v>
+        <v>131.09100000000001</v>
       </c>
       <c r="F12">
-        <v>901.39599999999996</v>
+        <v>450.77800000000002</v>
       </c>
       <c r="G12">
-        <v>2210.2399999999998</v>
+        <v>665.20100000000002</v>
       </c>
       <c r="H12">
-        <v>25722.136999999999</v>
+        <v>10411.171</v>
       </c>
       <c r="I12">
-        <v>229.59899999999999</v>
+        <v>80.444000000000003</v>
       </c>
       <c r="J12">
-        <v>13111.960999999999</v>
+        <v>5116.3440000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2098.1460000000002</v>
+        <v>748.61699999999996</v>
       </c>
       <c r="O12">
-        <v>17864.971000000001</v>
+        <v>7722.1329999999998</v>
       </c>
       <c r="P12">
-        <v>13111.960999999999</v>
+        <v>5124.3689999999997</v>
       </c>
       <c r="Q12">
-        <v>-201.964</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>7857.1660000000002</v>
+        <v>2689.038</v>
       </c>
       <c r="U12">
-        <v>1278.673</v>
+        <v>130.72399999999999</v>
       </c>
       <c r="V12">
-        <v>535.40599999999995</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-601.476</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>6.859</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-99.162000000000006</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-28.516999999999999</v>
+        <v>47.209000000000003</v>
       </c>
       <c r="D13">
-        <v>2370.9989999999998</v>
+        <v>976.84199999999998</v>
       </c>
       <c r="E13">
-        <v>411.077</v>
+        <v>141.29499999999999</v>
       </c>
       <c r="F13">
-        <v>882.96</v>
+        <v>428.24599999999998</v>
       </c>
       <c r="G13">
-        <v>2284.0149999999999</v>
+        <v>741.90499999999997</v>
       </c>
       <c r="H13">
-        <v>25658.834999999999</v>
+        <v>10551.65</v>
       </c>
       <c r="I13">
-        <v>202.792</v>
+        <v>100.072</v>
       </c>
       <c r="J13">
-        <v>13034.518</v>
+        <v>5246.8779999999997</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2161.4699999999998</v>
+        <v>803.31299999999999</v>
       </c>
       <c r="O13">
-        <v>17831.664000000001</v>
+        <v>7923.0529999999999</v>
       </c>
       <c r="P13">
-        <v>13034.518</v>
+        <v>5255.0290000000005</v>
       </c>
       <c r="Q13">
-        <v>96.73</v>
+        <v>23.082000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>7827.1710000000003</v>
+        <v>2628.5970000000002</v>
       </c>
       <c r="U13">
-        <v>1375.403</v>
+        <v>153.80600000000001</v>
       </c>
       <c r="V13">
-        <v>365.69499999999999</v>
+        <v>164.541</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-137.88399999999999</v>
+        <v>5.4859999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>5.5590000000000002</v>
+        <v>-18</v>
       </c>
       <c r="AA13">
-        <v>-22.312999999999999</v>
+        <v>47.209000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-56.805</v>
+        <v>91.734999999999999</v>
       </c>
       <c r="D14">
-        <v>2423.5639999999999</v>
+        <v>959.91</v>
       </c>
       <c r="E14">
-        <v>488.21699999999998</v>
+        <v>139.47499999999999</v>
       </c>
       <c r="F14">
-        <v>908.03800000000001</v>
+        <v>419.59500000000003</v>
       </c>
       <c r="G14">
-        <v>2719.4389999999999</v>
+        <v>859.18</v>
       </c>
       <c r="H14">
-        <v>26084.61</v>
+        <v>10811.269</v>
       </c>
       <c r="I14">
-        <v>144.99</v>
+        <v>186.99799999999999</v>
       </c>
       <c r="J14">
-        <v>13447.23</v>
+        <v>5521.89</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2215.328</v>
+        <v>866.61800000000005</v>
       </c>
       <c r="O14">
-        <v>18224.115000000002</v>
+        <v>8277.4809999999998</v>
       </c>
       <c r="P14">
-        <v>13447.23</v>
+        <v>5530.8980000000001</v>
       </c>
       <c r="Q14">
-        <v>428.26600000000002</v>
+        <v>62.087000000000003</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>50800</v>
+        <v>36000</v>
       </c>
       <c r="T14">
-        <v>7860.4949999999999</v>
+        <v>2533.788</v>
       </c>
       <c r="U14">
-        <v>1803.6690000000001</v>
+        <v>279.60599999999999</v>
       </c>
       <c r="V14">
-        <v>214.691</v>
+        <v>201.911</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>402.17399999999998</v>
+        <v>37.488999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-1.8919999999999999</v>
+        <v>-17</v>
       </c>
       <c r="AA14">
-        <v>-56.805</v>
+        <v>91.734999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>102.652</v>
+        <v>105.848</v>
       </c>
       <c r="D15">
-        <v>2535.4229999999998</v>
+        <v>1066.4359999999999</v>
       </c>
       <c r="E15">
-        <v>492.53500000000003</v>
+        <v>161.88300000000001</v>
       </c>
       <c r="F15">
-        <v>980.303</v>
+        <v>492.61700000000002</v>
       </c>
       <c r="G15">
-        <v>1970.63</v>
+        <v>645.05600000000004</v>
       </c>
       <c r="H15">
-        <v>25350.708999999999</v>
+        <v>10646.419</v>
       </c>
       <c r="I15">
-        <v>220.523</v>
+        <v>95.228999999999999</v>
       </c>
       <c r="J15">
-        <v>12930.727999999999</v>
+        <v>5394.9889999999996</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-1735.125</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-508.9</v>
+        <v>-667.41</v>
       </c>
       <c r="N15">
-        <v>2159.5639999999999</v>
+        <v>772.68600000000004</v>
       </c>
       <c r="O15">
-        <v>17527.863000000001</v>
+        <v>8035.4750000000004</v>
       </c>
       <c r="P15">
-        <v>12930.727999999999</v>
+        <v>5404.6760000000004</v>
       </c>
       <c r="Q15">
-        <v>-688.93299999999999</v>
+        <v>-35.274000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>7822.8459999999995</v>
+        <v>2610.944</v>
       </c>
       <c r="U15">
-        <v>1114.7360000000001</v>
+        <v>196.41300000000001</v>
       </c>
       <c r="V15">
-        <v>290.79500000000002</v>
+        <v>131.589</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-764.68799999999999</v>
+        <v>-203.381</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-22.678999999999998</v>
+        <v>-9.7029999999999994</v>
       </c>
       <c r="AA15">
-        <v>102.652</v>
+        <v>105.848</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>110.008</v>
+        <v>104.717</v>
       </c>
       <c r="D16">
-        <v>2485.288</v>
+        <v>1072.5250000000001</v>
       </c>
       <c r="E16">
-        <v>473.92200000000003</v>
+        <v>166.166</v>
       </c>
       <c r="F16">
-        <v>962.04100000000005</v>
+        <v>505.85700000000003</v>
       </c>
       <c r="G16">
-        <v>2166.3150000000001</v>
+        <v>623.62300000000005</v>
       </c>
       <c r="H16">
-        <v>25572.303</v>
+        <v>10704.208000000001</v>
       </c>
       <c r="I16">
-        <v>253.47499999999999</v>
+        <v>127.65</v>
       </c>
       <c r="J16">
-        <v>12606.52</v>
+        <v>5576.7280000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2560.3159999999998</v>
+        <v>788.17</v>
       </c>
       <c r="O16">
-        <v>17630.775000000001</v>
+        <v>8194.8680000000004</v>
       </c>
       <c r="P16">
-        <v>12923.714</v>
+        <v>5583.53</v>
       </c>
       <c r="Q16">
-        <v>250.40100000000001</v>
+        <v>-7.8280000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7941.5280000000002</v>
+        <v>2509.34</v>
       </c>
       <c r="U16">
-        <v>1365.1369999999999</v>
+        <v>185.79300000000001</v>
       </c>
       <c r="V16">
-        <v>512.82899999999995</v>
+        <v>228.00800000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-74.831999999999994</v>
+        <v>-67.319999999999993</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-12.18</v>
+        <v>-4.0880000000000001</v>
       </c>
       <c r="AA16">
-        <v>110.008</v>
+        <v>104.717</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-20.27</v>
+        <v>126.881</v>
       </c>
       <c r="D17">
-        <v>2386.69</v>
+        <v>1036.396</v>
       </c>
       <c r="E17">
-        <v>433.85300000000001</v>
+        <v>172.40799999999999</v>
       </c>
       <c r="F17">
-        <v>891.94899999999996</v>
+        <v>477.12900000000002</v>
       </c>
       <c r="G17">
-        <v>1991.057</v>
+        <v>719.20100000000002</v>
       </c>
       <c r="H17">
-        <v>25448.486000000001</v>
+        <v>10898.83</v>
       </c>
       <c r="I17">
-        <v>266.69600000000003</v>
+        <v>101.584</v>
       </c>
       <c r="J17">
-        <v>11723.655000000001</v>
+        <v>5569.768</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3369.3139999999999</v>
+        <v>783.48299999999995</v>
       </c>
       <c r="O17">
-        <v>17549.849999999999</v>
+        <v>8267.4449999999997</v>
       </c>
       <c r="P17">
-        <v>12915.197</v>
+        <v>5569.7820000000002</v>
       </c>
       <c r="Q17">
-        <v>-51.71</v>
+        <v>173.51499999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7898.6360000000004</v>
+        <v>2631.3850000000002</v>
       </c>
       <c r="U17">
-        <v>1313.4269999999999</v>
+        <v>355.63200000000001</v>
       </c>
       <c r="V17">
-        <v>219.19</v>
+        <v>230.02699999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-79.558999999999997</v>
+        <v>13.429</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>52.579000000000001</v>
+        <v>4.5659999999999998</v>
       </c>
       <c r="AA17">
-        <v>-20.27</v>
+        <v>126.881</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-342.26299999999998</v>
+        <v>74.885999999999996</v>
       </c>
       <c r="D18">
-        <v>2291.1489999999999</v>
+        <v>1062.7470000000001</v>
       </c>
       <c r="E18">
-        <v>473.34500000000003</v>
+        <v>204.15100000000001</v>
       </c>
       <c r="F18">
-        <v>878.99300000000005</v>
+        <v>473.25200000000001</v>
       </c>
       <c r="G18">
-        <v>3027.16</v>
+        <v>820.202</v>
       </c>
       <c r="H18">
-        <v>26593.914000000001</v>
+        <v>11115.029</v>
       </c>
       <c r="I18">
-        <v>164.25200000000001</v>
+        <v>198.05</v>
       </c>
       <c r="J18">
-        <v>12805.285</v>
+        <v>5458.848</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3407.9250000000002</v>
+        <v>927.97699999999998</v>
       </c>
       <c r="O18">
-        <v>18965.64</v>
+        <v>8343.3250000000007</v>
       </c>
       <c r="P18">
-        <v>14050.605</v>
+        <v>5458.8620000000001</v>
       </c>
       <c r="Q18">
-        <v>400.28800000000001</v>
+        <v>25.109000000000002</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>52100</v>
+        <v>33000</v>
       </c>
       <c r="T18">
-        <v>7628.2740000000003</v>
+        <v>2771.7040000000002</v>
       </c>
       <c r="U18">
-        <v>1713.7149999999999</v>
+        <v>435.12799999999999</v>
       </c>
       <c r="V18">
-        <v>107.85599999999999</v>
+        <v>239.62299999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1227.1559999999999</v>
+        <v>-68.7</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-603.46100000000001</v>
+        <v>-2.3769999999999998</v>
       </c>
       <c r="AA18">
-        <v>-342.26299999999998</v>
+        <v>74.885999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>169.85</v>
+        <v>111.07899999999999</v>
       </c>
       <c r="D19">
-        <v>2231.1840000000002</v>
+        <v>1204.135</v>
       </c>
       <c r="E19">
-        <v>461.75099999999998</v>
+        <v>218.36</v>
       </c>
       <c r="F19">
-        <v>880.12400000000002</v>
+        <v>560.44200000000001</v>
       </c>
       <c r="G19">
-        <v>2956.607</v>
+        <v>809.62800000000004</v>
       </c>
       <c r="H19">
-        <v>26798.447</v>
+        <v>11131.298000000001</v>
       </c>
       <c r="I19">
-        <v>187.32499999999999</v>
+        <v>123.342</v>
       </c>
       <c r="J19">
-        <v>14551.81</v>
+        <v>5334.65</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-1318.626</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-694.83199999999999</v>
       </c>
       <c r="N19">
-        <v>1895.761</v>
+        <v>808.28599999999994</v>
       </c>
       <c r="O19">
-        <v>19145.412</v>
+        <v>8108.5020000000004</v>
       </c>
       <c r="P19">
-        <v>14551.81</v>
+        <v>5334.6639999999998</v>
       </c>
       <c r="Q19">
-        <v>481.82</v>
+        <v>-39.381999999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7653.0349999999999</v>
+        <v>3022.7959999999998</v>
       </c>
       <c r="U19">
-        <v>2195.5349999999999</v>
+        <v>395.74599999999998</v>
       </c>
       <c r="V19">
-        <v>175.648</v>
+        <v>167.16300000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>189.22300000000001</v>
+        <v>-58.277999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>411.03199999999998</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>169.85</v>
+        <v>111.07899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>97.459000000000003</v>
+        <v>141.16800000000001</v>
       </c>
       <c r="D20">
-        <v>2281.587</v>
+        <v>1715.9559999999999</v>
       </c>
       <c r="E20">
-        <v>467.96</v>
+        <v>301.91899999999998</v>
       </c>
       <c r="F20">
-        <v>929.33799999999997</v>
+        <v>785.76700000000005</v>
       </c>
       <c r="G20">
-        <v>3267.0219999999999</v>
+        <v>1042.1980000000001</v>
       </c>
       <c r="H20">
-        <v>27149.587</v>
+        <v>20506.615000000002</v>
       </c>
       <c r="I20">
-        <v>174.24600000000001</v>
+        <v>182.93</v>
       </c>
       <c r="J20">
-        <v>12495.209000000001</v>
+        <v>12268.883</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2790.7950000000001</v>
+        <v>1513.2660000000001</v>
       </c>
       <c r="O20">
-        <v>17967.757000000001</v>
+        <v>17330.600999999999</v>
       </c>
       <c r="P20">
-        <v>13382.237999999999</v>
+        <v>12268.897000000001</v>
       </c>
       <c r="Q20">
-        <v>146.80500000000001</v>
+        <v>-89.251000000000005</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9181.83</v>
+        <v>3176.0140000000001</v>
       </c>
       <c r="U20">
-        <v>2342.34</v>
+        <v>306.495</v>
       </c>
       <c r="V20">
-        <v>271.62099999999998</v>
+        <v>451.762</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>164.636</v>
+        <v>4195.7830000000004</v>
       </c>
       <c r="Y20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-15.78</v>
+        <v>-177</v>
       </c>
       <c r="AA20">
-        <v>97.459000000000003</v>
+        <v>141.16800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>66.424999999999997</v>
+        <v>93.21</v>
       </c>
       <c r="D21">
-        <v>2182.5239999999999</v>
+        <v>1808.2429999999999</v>
       </c>
       <c r="E21">
-        <v>470.84199999999998</v>
+        <v>298.65699999999998</v>
       </c>
       <c r="F21">
-        <v>882.91600000000005</v>
+        <v>802.19399999999996</v>
       </c>
       <c r="G21">
-        <v>2582.2739999999999</v>
+        <v>858.66499999999996</v>
       </c>
       <c r="H21">
-        <v>26680.266</v>
+        <v>20349.963</v>
       </c>
       <c r="I21">
-        <v>168.65100000000001</v>
+        <v>161.01300000000001</v>
       </c>
       <c r="J21">
-        <v>12821.037</v>
+        <v>12271.361999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1952.855</v>
+        <v>1268.4949999999999</v>
       </c>
       <c r="O21">
-        <v>17435.544000000002</v>
+        <v>17104.786</v>
       </c>
       <c r="P21">
-        <v>12821.037</v>
+        <v>12271.376</v>
       </c>
       <c r="Q21">
-        <v>-534.54499999999996</v>
+        <v>-41.052999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>9244.7219999999998</v>
+        <v>3245.1770000000001</v>
       </c>
       <c r="U21">
-        <v>1807.7950000000001</v>
+        <v>265.44200000000001</v>
       </c>
       <c r="V21">
-        <v>290.51100000000002</v>
+        <v>179.24299999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-591.87</v>
+        <v>-45.009</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>183.07400000000001</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>66.424999999999997</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-781.45399999999995</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2095.9369999999999</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>480.55900000000003</v>
+        <v>317.65199999999999</v>
       </c>
       <c r="F22">
-        <v>872.31399999999996</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>2408.7489999999998</v>
+        <v>1018.583</v>
       </c>
       <c r="H22">
-        <v>25215.178</v>
+        <v>20699.419999999998</v>
       </c>
       <c r="I22">
-        <v>182.03100000000001</v>
+        <v>156.37299999999999</v>
       </c>
       <c r="J22">
-        <v>12368.311</v>
+        <v>12355.433000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2237.951</v>
+        <v>1534.568</v>
       </c>
       <c r="O22">
-        <v>17444.501</v>
+        <v>17464.348000000002</v>
       </c>
       <c r="P22">
-        <v>12696.753000000001</v>
+        <v>12355.447</v>
       </c>
       <c r="Q22">
-        <v>-137.483</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>50500</v>
+        <v>54500</v>
       </c>
       <c r="T22">
-        <v>7770.6769999999997</v>
+        <v>3235.0720000000001</v>
       </c>
       <c r="U22">
-        <v>1670.3119999999999</v>
+        <v>377.93299999999999</v>
       </c>
       <c r="V22">
-        <v>267.29899999999998</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-19.867999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-2.7759999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-781.45399999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>66.799000000000007</v>
+        <v>144.03700000000001</v>
       </c>
       <c r="D23">
-        <v>2108.6370000000002</v>
+        <v>1774.3679999999999</v>
       </c>
       <c r="E23">
-        <v>452.75099999999998</v>
+        <v>314.14800000000002</v>
       </c>
       <c r="F23">
-        <v>907.97299999999996</v>
+        <v>842.46500000000003</v>
       </c>
       <c r="G23">
-        <v>2401.6439999999998</v>
+        <v>911.26900000000001</v>
       </c>
       <c r="H23">
-        <v>25497.29</v>
+        <v>20844.109</v>
       </c>
       <c r="I23">
-        <v>183.77699999999999</v>
+        <v>295.57799999999997</v>
       </c>
       <c r="J23">
-        <v>12686.380999999999</v>
+        <v>12504.752</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2.661</v>
+        <v>-3700</v>
       </c>
       <c r="N23">
-        <v>2088.3110000000001</v>
+        <v>1394.4469999999999</v>
       </c>
       <c r="O23">
-        <v>17626.03</v>
+        <v>17458.334999999999</v>
       </c>
       <c r="P23">
-        <v>12929.281000000001</v>
+        <v>12504.752</v>
       </c>
       <c r="Q23">
-        <v>-5.407</v>
+        <v>-80.899000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7871.26</v>
+        <v>3385.7739999999999</v>
       </c>
       <c r="U23">
-        <v>1664.905</v>
+        <v>297.03399999999999</v>
       </c>
       <c r="V23">
-        <v>224.596</v>
+        <v>139.755</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>200.96199999999999</v>
+        <v>135.232</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>7.3999999999999996E-2</v>
+        <v>-32</v>
       </c>
       <c r="AA23">
-        <v>66.799000000000007</v>
+        <v>144.03700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>474.35300000000001</v>
+        <v>146.39400000000001</v>
       </c>
       <c r="D24">
-        <v>2168.7069999999999</v>
+        <v>1760.508</v>
       </c>
       <c r="E24">
-        <v>443.90300000000002</v>
+        <v>312.93200000000002</v>
       </c>
       <c r="F24">
-        <v>956.53300000000002</v>
+        <v>841.36400000000003</v>
       </c>
       <c r="G24">
-        <v>3193.7869999999998</v>
+        <v>905.86099999999999</v>
       </c>
       <c r="H24">
-        <v>26549.055</v>
+        <v>21071.66</v>
       </c>
       <c r="I24">
-        <v>161.41999999999999</v>
+        <v>366.81200000000001</v>
       </c>
       <c r="J24">
-        <v>12364.92</v>
+        <v>12604.145</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1917.779</v>
+        <v>1456.518</v>
       </c>
       <c r="O24">
-        <v>17015.921999999999</v>
+        <v>17606.267</v>
       </c>
       <c r="P24">
-        <v>12364.92</v>
+        <v>12604.145</v>
       </c>
       <c r="Q24">
-        <v>838.35</v>
+        <v>-2.0419999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9533.1329999999998</v>
+        <v>3465.393</v>
       </c>
       <c r="U24">
-        <v>2503.2550000000001</v>
+        <v>294.99200000000002</v>
       </c>
       <c r="V24">
-        <v>389.05</v>
+        <v>278.29599999999999</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>451.68200000000002</v>
+        <v>11.927</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>541.80799999999999</v>
+        <v>-30.655000000000001</v>
       </c>
       <c r="AA24">
-        <v>474.35300000000001</v>
+        <v>146.39400000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>535.61900000000003</v>
+        <v>156.262</v>
       </c>
       <c r="D25">
-        <v>2415.799</v>
+        <v>1795.0419999999999</v>
       </c>
       <c r="E25">
-        <v>492.42599999999999</v>
+        <v>343.49099999999999</v>
       </c>
       <c r="F25">
-        <v>1089.596</v>
+        <v>829.63900000000001</v>
       </c>
       <c r="G25">
-        <v>2214.348</v>
+        <v>1002.533</v>
       </c>
       <c r="H25">
-        <v>27705.286</v>
+        <v>21644.6</v>
       </c>
       <c r="I25">
-        <v>232.49</v>
+        <v>439.78199999999998</v>
       </c>
       <c r="J25">
-        <v>12786.42</v>
+        <v>12955.822</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2130.6350000000002</v>
+        <v>1554.1559999999999</v>
       </c>
       <c r="O25">
-        <v>17781.577000000001</v>
+        <v>18103.188999999998</v>
       </c>
       <c r="P25">
-        <v>12786.42</v>
+        <v>12955.822</v>
       </c>
       <c r="Q25">
-        <v>-1057.097</v>
+        <v>48.723999999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>9923.7090000000007</v>
+        <v>3541.4110000000001</v>
       </c>
       <c r="U25">
-        <v>1446.1579999999999</v>
+        <v>343.71600000000001</v>
       </c>
       <c r="V25">
-        <v>435.35899999999998</v>
+        <v>358.245</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-334.93200000000002</v>
+        <v>257.51799999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>14.599</v>
+        <v>-23.344999999999999</v>
       </c>
       <c r="AA25">
-        <v>535.61900000000003</v>
+        <v>156.262</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>24.669</v>
+        <v>201.571</v>
       </c>
       <c r="D26">
-        <v>2364.828</v>
+        <v>1846.038</v>
       </c>
       <c r="E26">
-        <v>542.92399999999998</v>
+        <v>333.79</v>
       </c>
       <c r="F26">
-        <v>1005.357</v>
+        <v>849.10199999999998</v>
       </c>
       <c r="G26">
-        <v>2229.587</v>
+        <v>1514.751</v>
       </c>
       <c r="H26">
-        <v>28173.300999999999</v>
+        <v>22146.238000000001</v>
       </c>
       <c r="I26">
-        <v>250.477</v>
+        <v>182.154</v>
       </c>
       <c r="J26">
-        <v>12979.22</v>
+        <v>12994.869000000001</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,161 +2884,161 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2293.4209999999998</v>
+        <v>1648.1</v>
       </c>
       <c r="O26">
-        <v>18149.849999999999</v>
+        <v>18296.688999999998</v>
       </c>
       <c r="P26">
-        <v>12987.594999999999</v>
+        <v>12994.869000000001</v>
       </c>
       <c r="Q26">
-        <v>0.42299999999999999</v>
+        <v>109.22799999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>58000</v>
+        <v>56800</v>
       </c>
       <c r="T26">
-        <v>10023.450999999999</v>
+        <v>3849.549</v>
       </c>
       <c r="U26">
-        <v>1446.5809999999999</v>
+        <v>452.94400000000002</v>
       </c>
       <c r="V26">
-        <v>484.96699999999998</v>
+        <v>455.65600000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>201.71</v>
+        <v>105.34699999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-3.0169999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>24.669</v>
+        <v>201.571</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>206.41200000000001</v>
+        <v>168.173</v>
       </c>
       <c r="D27">
-        <v>2617.3510000000001</v>
+        <v>1929.4349999999999</v>
       </c>
       <c r="E27">
-        <v>493.76499999999999</v>
+        <v>373.39100000000002</v>
       </c>
       <c r="F27">
-        <v>1185.1959999999999</v>
+        <v>936.95899999999995</v>
       </c>
       <c r="G27">
-        <v>2172.7179999999998</v>
+        <v>1434.819</v>
       </c>
       <c r="H27">
-        <v>28303.092000000001</v>
+        <v>22557.769</v>
       </c>
       <c r="I27">
-        <v>204.83500000000001</v>
+        <v>157.02199999999999</v>
       </c>
       <c r="J27">
-        <v>13100.715</v>
+        <v>13240.315000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-497.7</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="N27">
-        <v>2124.7640000000001</v>
+        <v>1634.952</v>
       </c>
       <c r="O27">
-        <v>18106.606</v>
+        <v>18626.170999999998</v>
       </c>
       <c r="P27">
-        <v>13100.715</v>
+        <v>13240.315000000001</v>
       </c>
       <c r="Q27">
-        <v>-51.137</v>
+        <v>-138.977</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>10196.486000000001</v>
+        <v>3931.598</v>
       </c>
       <c r="U27">
-        <v>1395.444</v>
+        <v>313.96699999999998</v>
       </c>
       <c r="V27">
-        <v>405.435</v>
+        <v>256.26</v>
       </c>
       <c r="W27">
-        <v>-63.182000000000002</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>10.465999999999999</v>
+        <v>146.49</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>206.41200000000001</v>
+        <v>168.173</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>209.864</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>2552.8409999999999</v>
+        <v>1936.4159999999999</v>
       </c>
       <c r="E28">
-        <v>469.12599999999998</v>
+        <v>333.29500000000002</v>
       </c>
       <c r="F28">
-        <v>1131.5170000000001</v>
+        <v>929.82399999999996</v>
       </c>
       <c r="G28">
-        <v>2485.1309999999999</v>
+        <v>981.93</v>
       </c>
       <c r="H28">
-        <v>28542.931</v>
+        <v>23498.170999999998</v>
       </c>
       <c r="I28">
-        <v>206.14400000000001</v>
+        <v>149.86799999999999</v>
       </c>
       <c r="J28">
-        <v>12728.222</v>
+        <v>13560.785</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2679.5680000000002</v>
+        <v>1825.8119999999999</v>
       </c>
       <c r="O28">
-        <v>18254.593000000001</v>
+        <v>19167.077000000001</v>
       </c>
       <c r="P28">
-        <v>13200.812</v>
+        <v>13560.785</v>
       </c>
       <c r="Q28">
-        <v>361.61799999999999</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="T28">
-        <v>10288.338</v>
+        <v>4331.0940000000001</v>
       </c>
       <c r="U28">
-        <v>1757.0619999999999</v>
+        <v>294.60899999999998</v>
       </c>
       <c r="V28">
-        <v>533.69100000000003</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-63.247</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-43.411000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>298.72699999999998</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>209.864</v>
+        <v>360.17200000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>148.363</v>
+        <v>183.863</v>
       </c>
       <c r="D29">
-        <v>2727.7939999999999</v>
+        <v>1897.07</v>
       </c>
       <c r="E29">
-        <v>515.423</v>
+        <v>378.697</v>
       </c>
       <c r="F29">
-        <v>1232.1030000000001</v>
+        <v>895.43399999999997</v>
       </c>
       <c r="G29">
-        <v>2794.5360000000001</v>
+        <v>1134.499</v>
       </c>
       <c r="H29">
-        <v>29101.89</v>
+        <v>24307.210999999999</v>
       </c>
       <c r="I29">
-        <v>242.60400000000001</v>
+        <v>186.87</v>
       </c>
       <c r="J29">
-        <v>13029.307000000001</v>
+        <v>14131.377</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2735.76</v>
+        <v>1705.7449999999999</v>
       </c>
       <c r="O29">
-        <v>18717.812999999998</v>
+        <v>19725.458999999999</v>
       </c>
       <c r="P29">
-        <v>13495.682000000001</v>
+        <v>14131.377</v>
       </c>
       <c r="Q29">
-        <v>229.626</v>
+        <v>13.961</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>64000</v>
       </c>
       <c r="T29">
-        <v>10384.076999999999</v>
+        <v>4581.7520000000004</v>
       </c>
       <c r="U29">
-        <v>1986.6880000000001</v>
+        <v>311.60500000000002</v>
       </c>
       <c r="V29">
-        <v>572.78300000000002</v>
+        <v>19.34</v>
       </c>
       <c r="W29">
-        <v>-63.296999999999997</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>190.965</v>
+        <v>627.096</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1.1479999999999999</v>
+        <v>10.211</v>
       </c>
       <c r="AA29">
-        <v>148.363</v>
+        <v>183.863</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1387.413</v>
+        <v>872.21100000000001</v>
       </c>
       <c r="D30">
-        <v>2497.451</v>
+        <v>1928.7159999999999</v>
       </c>
       <c r="E30">
-        <v>542.27300000000002</v>
+        <v>412.93299999999999</v>
       </c>
       <c r="F30">
-        <v>1055.5409999999999</v>
+        <v>901.86199999999997</v>
       </c>
       <c r="G30">
-        <v>2376.355</v>
+        <v>1125.8150000000001</v>
       </c>
       <c r="H30">
-        <v>29160.042000000001</v>
+        <v>22727.686000000002</v>
       </c>
       <c r="I30">
-        <v>255.02799999999999</v>
+        <v>220.495</v>
       </c>
       <c r="J30">
-        <v>12751.052</v>
+        <v>11175.228999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3138.297</v>
+        <v>1724.6869999999999</v>
       </c>
       <c r="O30">
-        <v>17469.14</v>
+        <v>16666.983</v>
       </c>
       <c r="P30">
-        <v>12909.093999999999</v>
+        <v>11175.228999999999</v>
       </c>
       <c r="Q30">
-        <v>-486.69299999999998</v>
+        <v>104.51900000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>60000</v>
+        <v>54700</v>
       </c>
       <c r="T30">
-        <v>11690.902</v>
+        <v>6060.7030000000004</v>
       </c>
       <c r="U30">
-        <v>1499.9949999999999</v>
+        <v>416.12400000000002</v>
       </c>
       <c r="V30">
-        <v>694.50199999999995</v>
+        <v>297.02800000000002</v>
       </c>
       <c r="W30">
-        <v>-62.287999999999997</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-726.798</v>
+        <v>-2363.2829999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-9.5950000000000006</v>
+        <v>2437.232</v>
       </c>
       <c r="AA30">
-        <v>1387.413</v>
+        <v>872.21100000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>223.44399999999999</v>
+        <v>118.346</v>
       </c>
       <c r="D31">
-        <v>2718.9569999999999</v>
+        <v>1883.633</v>
       </c>
       <c r="E31">
-        <v>505.59100000000001</v>
+        <v>390.452</v>
       </c>
       <c r="F31">
-        <v>1187.027</v>
+        <v>862.60900000000004</v>
       </c>
       <c r="G31">
-        <v>2392.7130000000002</v>
+        <v>1088.5550000000001</v>
       </c>
       <c r="H31">
-        <v>29298.27</v>
+        <v>22895.879000000001</v>
       </c>
       <c r="I31">
-        <v>253.39099999999999</v>
+        <v>169.41900000000001</v>
       </c>
       <c r="J31">
-        <v>12742.861000000001</v>
+        <v>12777.215</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2.2650000000000001</v>
+        <v>-1930.442</v>
       </c>
       <c r="N31">
-        <v>3586.8879999999999</v>
+        <v>1267.923</v>
       </c>
       <c r="O31">
-        <v>17819.219000000001</v>
+        <v>17800.161</v>
       </c>
       <c r="P31">
-        <v>13282.468999999999</v>
+        <v>12777.215</v>
       </c>
       <c r="Q31">
-        <v>25.407</v>
+        <v>-84.644999999999996</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>11479.050999999999</v>
+        <v>5095.7179999999998</v>
       </c>
       <c r="U31">
-        <v>1525.402</v>
+        <v>327.745</v>
       </c>
       <c r="V31">
-        <v>577.66399999999999</v>
+        <v>-124.322</v>
       </c>
       <c r="W31">
-        <v>-67.998999999999995</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-117.05</v>
+        <v>512.31299999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2.5030000000000001</v>
+        <v>-227.184</v>
       </c>
       <c r="AA31">
-        <v>223.44399999999999</v>
+        <v>118.346</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>123.777</v>
+        <v>113.101</v>
       </c>
       <c r="D32">
-        <v>2754.1350000000002</v>
+        <v>1915.0909999999999</v>
       </c>
       <c r="E32">
-        <v>497.35</v>
+        <v>366.13299999999998</v>
       </c>
       <c r="F32">
-        <v>1189.2809999999999</v>
+        <v>871.22799999999995</v>
       </c>
       <c r="G32">
-        <v>2083.116</v>
+        <v>941.82100000000003</v>
       </c>
       <c r="H32">
-        <v>28977.16</v>
+        <v>23131.111000000001</v>
       </c>
       <c r="I32">
-        <v>268.14</v>
+        <v>164.05500000000001</v>
       </c>
       <c r="J32">
-        <v>13513.341</v>
+        <v>13010.813</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3064.7930000000001</v>
+        <v>1287.261</v>
       </c>
       <c r="O32">
-        <v>18050.251</v>
+        <v>18044.795999999998</v>
       </c>
       <c r="P32">
-        <v>13513.341</v>
+        <v>13010.813</v>
       </c>
       <c r="Q32">
-        <v>-252.53</v>
+        <v>-47.75</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>10926.909</v>
+        <v>5086.3149999999996</v>
       </c>
       <c r="U32">
-        <v>1272.8720000000001</v>
+        <v>279.995</v>
       </c>
       <c r="V32">
-        <v>515.48699999999997</v>
+        <v>380.73500000000001</v>
       </c>
       <c r="W32">
-        <v>-65.334999999999994</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-521.101</v>
+        <v>110.867</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>200</v>
+        <v>-330.505</v>
       </c>
       <c r="AA32">
-        <v>123.777</v>
+        <v>113.101</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>142.87799999999999</v>
+        <v>61.277999999999999</v>
       </c>
       <c r="D33">
-        <v>2922.6219999999998</v>
+        <v>1785.5309999999999</v>
       </c>
       <c r="E33">
-        <v>546.64599999999996</v>
+        <v>322.82100000000003</v>
       </c>
       <c r="F33">
-        <v>1241.876</v>
+        <v>792.21500000000003</v>
       </c>
       <c r="G33">
-        <v>2208.0239999999999</v>
+        <v>913.21199999999999</v>
       </c>
       <c r="H33">
-        <v>29973.514999999999</v>
+        <v>23390.727999999999</v>
       </c>
       <c r="I33">
-        <v>301.00799999999998</v>
+        <v>155.18299999999999</v>
       </c>
       <c r="J33">
-        <v>14663.972</v>
+        <v>13288.306</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2977.59</v>
+        <v>1172.5050000000001</v>
       </c>
       <c r="O33">
-        <v>19133.996999999999</v>
+        <v>18246.268</v>
       </c>
       <c r="P33">
-        <v>14663.972</v>
+        <v>13288.306</v>
       </c>
       <c r="Q33">
-        <v>29.805</v>
+        <v>-33.642000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10839.518</v>
+        <v>5144.46</v>
       </c>
       <c r="U33">
-        <v>1302.6769999999999</v>
+        <v>250.08699999999999</v>
       </c>
       <c r="V33">
-        <v>302.315</v>
+        <v>244.30699999999999</v>
       </c>
       <c r="W33">
-        <v>-63.960999999999999</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>845.548</v>
+        <v>247.20500000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>283.90300000000002</v>
+        <v>-323.447</v>
       </c>
       <c r="AA33">
-        <v>142.87799999999999</v>
+        <v>61.277999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-23.327000000000002</v>
+        <v>-1148.011</v>
       </c>
       <c r="D34">
-        <v>2941.89</v>
+        <v>1624.5119999999999</v>
       </c>
       <c r="E34">
-        <v>657.20600000000002</v>
+        <v>303.416</v>
       </c>
       <c r="F34">
-        <v>1226.037</v>
+        <v>648.34100000000001</v>
       </c>
       <c r="G34">
-        <v>2526.7779999999998</v>
+        <v>1533.03</v>
       </c>
       <c r="H34">
-        <v>30210.705999999998</v>
+        <v>23274.716</v>
       </c>
       <c r="I34">
-        <v>302.57799999999997</v>
+        <v>142.69300000000001</v>
       </c>
       <c r="J34">
-        <v>15088.004999999999</v>
+        <v>12416.552</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2948.8820000000001</v>
+        <v>3002.576</v>
       </c>
       <c r="O34">
-        <v>19638.665000000001</v>
+        <v>19300.355</v>
       </c>
       <c r="P34">
-        <v>15131.415999999999</v>
+        <v>13464.165999999999</v>
       </c>
       <c r="Q34">
-        <v>224.08500000000001</v>
+        <v>45.557000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>66000</v>
+        <v>46000</v>
       </c>
       <c r="T34">
-        <v>10572.040999999999</v>
+        <v>3974.3609999999999</v>
       </c>
       <c r="U34">
-        <v>1526.7619999999999</v>
+        <v>295.64400000000001</v>
       </c>
       <c r="V34">
-        <v>327.07299999999998</v>
+        <v>252.31200000000001</v>
       </c>
       <c r="W34">
-        <v>-63.296999999999997</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>181.83699999999999</v>
+        <v>251.697</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-51.448</v>
+        <v>-398.32600000000002</v>
       </c>
       <c r="AA34">
-        <v>-23.327000000000002</v>
+        <v>-1148.011</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>31.297000000000001</v>
+        <v>105.199</v>
       </c>
       <c r="D35">
-        <v>3065.1559999999999</v>
+        <v>1485.1120000000001</v>
       </c>
       <c r="E35">
-        <v>602.60199999999998</v>
+        <v>449.46800000000002</v>
       </c>
       <c r="F35">
-        <v>1314.5360000000001</v>
+        <v>614.95500000000004</v>
       </c>
       <c r="G35">
-        <v>2207.1350000000002</v>
+        <v>2090.864</v>
       </c>
       <c r="H35">
-        <v>31146.920999999998</v>
+        <v>23841.649000000001</v>
       </c>
       <c r="I35">
-        <v>336.58600000000001</v>
+        <v>113.23699999999999</v>
       </c>
       <c r="J35">
-        <v>14730.829</v>
+        <v>3.99</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-289.767</v>
+        <v>-3490</v>
       </c>
       <c r="M35">
-        <v>-850</v>
+        <v>-2220</v>
       </c>
       <c r="N35">
-        <v>2812.6779999999999</v>
+        <v>16015.128000000001</v>
       </c>
       <c r="O35">
-        <v>19829.718000000001</v>
+        <v>19751.483</v>
       </c>
       <c r="P35">
-        <v>15307.273999999999</v>
+        <v>14360.482</v>
       </c>
       <c r="Q35">
-        <v>-303.358</v>
+        <v>1069.9369999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11317.203</v>
+        <v>4090.1660000000002</v>
       </c>
       <c r="U35">
-        <v>1223.404</v>
+        <v>1365.5809999999999</v>
       </c>
       <c r="V35">
-        <v>399.78199999999998</v>
+        <v>134.26300000000001</v>
       </c>
       <c r="W35">
-        <v>-69.799000000000007</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>24.850999999999999</v>
+        <v>875.29499999999996</v>
       </c>
       <c r="Y35">
-        <v>510.95100000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>22.292000000000002</v>
+        <v>-383.59</v>
       </c>
       <c r="AA35">
-        <v>31.297000000000001</v>
+        <v>105.199</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>43.405000000000001</v>
+        <v>-212.57499999999999</v>
       </c>
       <c r="D36">
-        <v>3112.105</v>
+        <v>1480.8820000000001</v>
       </c>
       <c r="E36">
-        <v>562.77200000000005</v>
+        <v>287.86200000000002</v>
       </c>
       <c r="F36">
-        <v>1318.423</v>
+        <v>630.57299999999998</v>
       </c>
       <c r="G36">
-        <v>2040.0340000000001</v>
+        <v>1075.32</v>
       </c>
       <c r="H36">
-        <v>30813.715</v>
+        <v>22409.924999999999</v>
       </c>
       <c r="I36">
-        <v>277.59100000000001</v>
+        <v>117.254</v>
       </c>
       <c r="J36">
-        <v>14661.695</v>
+        <v>12364.839</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2786.5390000000002</v>
+        <v>1231.961</v>
       </c>
       <c r="O36">
-        <v>19758.407999999999</v>
+        <v>17364.994999999999</v>
       </c>
       <c r="P36">
-        <v>15269.9</v>
+        <v>12364.839</v>
       </c>
       <c r="Q36">
-        <v>-62.813000000000002</v>
+        <v>-954.22500000000002</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>11055.307000000001</v>
+        <v>5044.93</v>
       </c>
       <c r="U36">
-        <v>1160.5909999999999</v>
+        <v>411.35599999999999</v>
       </c>
       <c r="V36">
-        <v>568.05100000000004</v>
+        <v>253.76599999999999</v>
       </c>
       <c r="W36">
-        <v>-68.415999999999997</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-482.63</v>
+        <v>-1059.47</v>
       </c>
       <c r="Y36">
-        <v>529.17100000000005</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-12.961</v>
+        <v>-374.14100000000002</v>
       </c>
       <c r="AA36">
-        <v>43.405000000000001</v>
+        <v>-212.57499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-37.133000000000003</v>
+        <v>-750.38800000000003</v>
       </c>
       <c r="D37">
-        <v>3206.4810000000002</v>
+        <v>1517.6990000000001</v>
       </c>
       <c r="E37">
-        <v>550.34500000000003</v>
+        <v>309.28100000000001</v>
       </c>
       <c r="F37">
-        <v>1377.732</v>
+        <v>644.08500000000004</v>
       </c>
       <c r="G37">
-        <v>2880.7460000000001</v>
+        <v>1624.4649999999999</v>
       </c>
       <c r="H37">
-        <v>31168.870999999999</v>
+        <v>21726.521000000001</v>
       </c>
       <c r="I37">
-        <v>253.637</v>
+        <v>130.708</v>
       </c>
       <c r="J37">
-        <v>14943.874</v>
+        <v>12910.322</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3293.2440000000001</v>
+        <v>1157.1289999999999</v>
       </c>
       <c r="O37">
-        <v>20542.276999999998</v>
+        <v>17431.378000000001</v>
       </c>
       <c r="P37">
-        <v>15531.933000000001</v>
+        <v>12910.322</v>
       </c>
       <c r="Q37">
-        <v>72.977999999999994</v>
+        <v>485.63400000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10626.593999999999</v>
+        <v>4295.143</v>
       </c>
       <c r="U37">
-        <v>1233.569</v>
+        <v>896.99</v>
       </c>
       <c r="V37">
-        <v>388.27499999999998</v>
+        <v>130.28700000000001</v>
       </c>
       <c r="W37">
-        <v>-66.947999999999993</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-162.107</v>
+        <v>527.33699999999999</v>
       </c>
       <c r="Y37">
-        <v>518.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>9.0589999999999993</v>
+        <v>-164.33600000000001</v>
       </c>
       <c r="AA37">
-        <v>-37.133000000000003</v>
+        <v>-750.38800000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>2011.577</v>
+        <v>-433.91800000000001</v>
       </c>
       <c r="D38">
-        <v>3079.0430000000001</v>
+        <v>1395.5170000000001</v>
       </c>
       <c r="E38">
-        <v>612.71699999999998</v>
+        <v>368.47399999999999</v>
       </c>
       <c r="F38">
-        <v>1285.492</v>
+        <v>549.66999999999996</v>
       </c>
       <c r="G38">
-        <v>4007.6930000000002</v>
+        <v>3053.5010000000002</v>
       </c>
       <c r="H38">
-        <v>33876.356</v>
+        <v>22518.21</v>
       </c>
       <c r="I38">
-        <v>235.43700000000001</v>
+        <v>173.71899999999999</v>
       </c>
       <c r="J38">
-        <v>11199.904</v>
+        <v>12976.037</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3191.4229999999998</v>
+        <v>2383.6010000000001</v>
       </c>
       <c r="O38">
-        <v>21108.391</v>
+        <v>18647.777999999998</v>
       </c>
       <c r="P38">
-        <v>15640.504000000001</v>
+        <v>14055.861000000001</v>
       </c>
       <c r="Q38">
-        <v>1096.0350000000001</v>
+        <v>1159.2170000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>63000</v>
+        <v>46000</v>
       </c>
       <c r="T38">
-        <v>12767.965</v>
+        <v>3870.4319999999998</v>
       </c>
       <c r="U38">
-        <v>2329.6039999999998</v>
+        <v>2056.2069999999999</v>
       </c>
       <c r="V38">
-        <v>454.29300000000001</v>
+        <v>69.597999999999999</v>
       </c>
       <c r="W38">
-        <v>-66.125</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-3909.7080000000001</v>
+        <v>1145.588</v>
       </c>
       <c r="Y38">
-        <v>4345.152</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.433</v>
+        <v>-41.618000000000002</v>
       </c>
       <c r="AA38">
-        <v>2011.577</v>
+        <v>-433.91800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>806.86900000000003</v>
+        <v>-96.741</v>
       </c>
       <c r="D39">
-        <v>2154.6309999999999</v>
+        <v>1372.93</v>
       </c>
       <c r="E39">
-        <v>454.82600000000002</v>
+        <v>563.101</v>
       </c>
       <c r="F39">
-        <v>814.65300000000002</v>
+        <v>537.74400000000003</v>
       </c>
       <c r="G39">
-        <v>7597.9290000000001</v>
+        <v>1780.75</v>
       </c>
       <c r="H39">
-        <v>39118.904999999999</v>
+        <v>21009.902999999998</v>
       </c>
       <c r="I39">
-        <v>202.73500000000001</v>
+        <v>117.986</v>
       </c>
       <c r="J39">
-        <v>11875.348</v>
+        <v>12694.671</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-1275.1769999999999</v>
       </c>
       <c r="M39">
-        <v>-846.72400000000005</v>
+        <v>-2695.9929999999999</v>
       </c>
       <c r="N39">
-        <v>2626.2469999999998</v>
+        <v>1165.83</v>
       </c>
       <c r="O39">
-        <v>25697.261999999999</v>
+        <v>17229.165000000001</v>
       </c>
       <c r="P39">
-        <v>20537.669999999998</v>
+        <v>12694.671</v>
       </c>
       <c r="Q39">
-        <v>3686.8130000000001</v>
+        <v>-1615.62</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>13421.643</v>
+        <v>3780.7379999999998</v>
       </c>
       <c r="U39">
-        <v>6016.4170000000004</v>
+        <v>440.58699999999999</v>
       </c>
       <c r="V39">
-        <v>-422.93700000000001</v>
+        <v>-44.908999999999999</v>
       </c>
       <c r="W39">
-        <v>-73.903999999999996</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>1744.7529999999999</v>
+        <v>-1254.4770000000001</v>
       </c>
       <c r="Y39">
-        <v>8552.4390000000003</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-20.222999999999999</v>
+        <v>-262</v>
       </c>
       <c r="AA39">
-        <v>806.86900000000003</v>
+        <v>-96.741</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-857.25699999999995</v>
+        <v>-883.476</v>
       </c>
       <c r="D40">
-        <v>273.61200000000002</v>
+        <v>1456.9680000000001</v>
       </c>
       <c r="E40">
-        <v>287.065</v>
+        <v>363.03100000000001</v>
       </c>
       <c r="F40">
-        <v>-84.561000000000007</v>
+        <v>583.31600000000003</v>
       </c>
       <c r="G40">
-        <v>6370.768</v>
+        <v>1791.9559999999999</v>
       </c>
       <c r="H40">
-        <v>37471.285000000003</v>
+        <v>19987.546999999999</v>
       </c>
       <c r="I40">
-        <v>122.428</v>
+        <v>117.46299999999999</v>
       </c>
       <c r="J40">
-        <v>11449.561</v>
+        <v>13046.638999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2575.1280000000002</v>
+        <v>1194.9870000000001</v>
       </c>
       <c r="O40">
-        <v>25063.707999999999</v>
+        <v>17138.388999999999</v>
       </c>
       <c r="P40">
-        <v>20131.173999999999</v>
+        <v>13046.638999999999</v>
       </c>
       <c r="Q40">
-        <v>-1180.912</v>
+        <v>572.62099999999998</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>12407.576999999999</v>
+        <v>2849.1579999999999</v>
       </c>
       <c r="U40">
-        <v>4835.5050000000001</v>
+        <v>1013.208</v>
       </c>
       <c r="V40">
-        <v>-662.56500000000005</v>
+        <v>394.75299999999999</v>
       </c>
       <c r="W40">
-        <v>-1.2330000000000001</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-496.93</v>
+        <v>227.82</v>
       </c>
       <c r="Y40">
-        <v>8537.6820000000007</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>45.13</v>
+        <v>-40</v>
       </c>
       <c r="AA40">
-        <v>-857.25699999999995</v>
+        <v>-883.476</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-534.73099999999999</v>
+        <v>-317.99099999999999</v>
       </c>
       <c r="D41">
-        <v>1093.6030000000001</v>
+        <v>1478.566</v>
       </c>
       <c r="E41">
-        <v>328.41300000000001</v>
+        <v>324.20600000000002</v>
       </c>
       <c r="F41">
-        <v>396.40300000000002</v>
+        <v>601.43499999999995</v>
       </c>
       <c r="G41">
-        <v>6186.2809999999999</v>
+        <v>1288.8009999999999</v>
       </c>
       <c r="H41">
-        <v>37004.775000000001</v>
+        <v>19136.371999999999</v>
       </c>
       <c r="I41">
-        <v>150.44499999999999</v>
+        <v>153.04900000000001</v>
       </c>
       <c r="J41">
-        <v>11519.73</v>
+        <v>12623.851000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,78 +4129,78 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2766.7840000000001</v>
+        <v>1318.9570000000001</v>
       </c>
       <c r="O41">
-        <v>25244.143</v>
+        <v>16596.001</v>
       </c>
       <c r="P41">
-        <v>20196.280999999999</v>
+        <v>12623.851000000001</v>
       </c>
       <c r="Q41">
-        <v>-241.63300000000001</v>
+        <v>-460.45100000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>11760.632</v>
+        <v>2540.3710000000001</v>
       </c>
       <c r="U41">
-        <v>4593.8720000000003</v>
+        <v>552.75699999999995</v>
       </c>
       <c r="V41">
-        <v>-164.10300000000001</v>
+        <v>30.553999999999998</v>
       </c>
       <c r="W41">
-        <v>-1.2330000000000001</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-7.9850000000000003</v>
+        <v>-436.26900000000001</v>
       </c>
       <c r="Y41">
-        <v>8531.8130000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-32.439</v>
+        <v>-106</v>
       </c>
       <c r="AA41">
-        <v>-534.73099999999999</v>
+        <v>-317.99099999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
-        <v>-447.60500000000002</v>
+        <v>-139.18899999999999</v>
       </c>
       <c r="D42">
-        <v>1395.287</v>
+        <v>1388.067</v>
       </c>
       <c r="E42">
-        <v>316.50200000000001</v>
+        <v>321.89400000000001</v>
       </c>
       <c r="F42">
-        <v>582.87599999999998</v>
+        <v>539.19600000000003</v>
       </c>
       <c r="G42">
-        <v>5950.6589999999997</v>
+        <v>1455.645</v>
       </c>
       <c r="H42">
-        <v>36494.934000000001</v>
+        <v>18951.848000000002</v>
       </c>
       <c r="I42">
-        <v>142.523</v>
+        <v>167.084</v>
       </c>
       <c r="J42">
-        <v>12463.683999999999</v>
+        <v>12047.698</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -4092,45 +4212,3365 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1856.5830000000001</v>
+        <v>1246.221</v>
       </c>
       <c r="O42">
-        <v>25248.484</v>
+        <v>16019.686</v>
       </c>
       <c r="P42">
-        <v>21132.278999999999</v>
+        <v>12047.698</v>
       </c>
       <c r="Q42">
-        <v>507.76499999999999</v>
+        <v>-53.792999999999999</v>
       </c>
       <c r="R42">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="S42">
         <v>45000</v>
       </c>
       <c r="T42">
+        <v>2932.1619999999998</v>
+      </c>
+      <c r="U42">
+        <v>498.964</v>
+      </c>
+      <c r="V42">
+        <v>123.616</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-12.252000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-159.941</v>
+      </c>
+      <c r="AA42">
+        <v>-139.18899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-89.870999999999995</v>
+      </c>
+      <c r="D43">
+        <v>1426.5630000000001</v>
+      </c>
+      <c r="E43">
+        <v>317.97399999999999</v>
+      </c>
+      <c r="F43">
+        <v>564.89700000000005</v>
+      </c>
+      <c r="G43">
+        <v>1366.4110000000001</v>
+      </c>
+      <c r="H43">
+        <v>18760.348999999998</v>
+      </c>
+      <c r="I43">
+        <v>138.53299999999999</v>
+      </c>
+      <c r="J43">
+        <v>12081.108</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1402.87</v>
+      </c>
+      <c r="N43">
+        <v>1172.44</v>
+      </c>
+      <c r="O43">
+        <v>15841.187</v>
+      </c>
+      <c r="P43">
+        <v>12081.108</v>
+      </c>
+      <c r="Q43">
+        <v>-67.688999999999993</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2919.1619999999998</v>
+      </c>
+      <c r="U43">
+        <v>431.27499999999998</v>
+      </c>
+      <c r="V43">
+        <v>23.978000000000002</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>18.87</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-75.703999999999994</v>
+      </c>
+      <c r="AA43">
+        <v>-89.870999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>3441.9850000000001</v>
+      </c>
+      <c r="D44">
+        <v>1716.5029999999999</v>
+      </c>
+      <c r="E44">
+        <v>370.07499999999999</v>
+      </c>
+      <c r="F44">
+        <v>675.37699999999995</v>
+      </c>
+      <c r="G44">
+        <v>1793.28</v>
+      </c>
+      <c r="H44">
+        <v>27216.19</v>
+      </c>
+      <c r="I44">
+        <v>179.703</v>
+      </c>
+      <c r="J44">
+        <v>12630.290999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1585.0250000000001</v>
+      </c>
+      <c r="O44">
+        <v>17170.916000000001</v>
+      </c>
+      <c r="P44">
+        <v>12630.290999999999</v>
+      </c>
+      <c r="Q44">
+        <v>490.27800000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>10045.273999999999</v>
+      </c>
+      <c r="U44">
+        <v>921.553</v>
+      </c>
+      <c r="V44">
+        <v>272.94499999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-114.10299999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-24.276</v>
+      </c>
+      <c r="AA44">
+        <v>3441.9850000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-123.786</v>
+      </c>
+      <c r="D45">
+        <v>2146.4430000000002</v>
+      </c>
+      <c r="E45">
+        <v>463.40699999999998</v>
+      </c>
+      <c r="F45">
+        <v>790.96400000000006</v>
+      </c>
+      <c r="G45">
+        <v>2721.8069999999998</v>
+      </c>
+      <c r="H45">
+        <v>27853.023000000001</v>
+      </c>
+      <c r="I45">
+        <v>158.477</v>
+      </c>
+      <c r="J45">
+        <v>13099.074000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2015.347</v>
+      </c>
+      <c r="O45">
+        <v>17911.417000000001</v>
+      </c>
+      <c r="P45">
+        <v>13450.682000000001</v>
+      </c>
+      <c r="Q45">
+        <v>893.572</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9941.6059999999998</v>
+      </c>
+      <c r="U45">
+        <v>1815.125</v>
+      </c>
+      <c r="V45">
+        <v>184.11699999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>804.81</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-4.76</v>
+      </c>
+      <c r="AA45">
+        <v>-123.786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>-113.691</v>
+      </c>
+      <c r="D46">
+        <v>2208.596</v>
+      </c>
+      <c r="E46">
+        <v>491.73</v>
+      </c>
+      <c r="F46">
+        <v>791.71299999999997</v>
+      </c>
+      <c r="G46">
+        <v>2812.72</v>
+      </c>
+      <c r="H46">
+        <v>27766.276000000002</v>
+      </c>
+      <c r="I46">
+        <v>170.994</v>
+      </c>
+      <c r="J46">
+        <v>13470.166999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1744.7639999999999</v>
+      </c>
+      <c r="O46">
+        <v>17884.054</v>
+      </c>
+      <c r="P46">
+        <v>13470.166999999999</v>
+      </c>
+      <c r="Q46">
+        <v>50.787999999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>50700</v>
+      </c>
+      <c r="T46">
+        <v>9882.2219999999998</v>
+      </c>
+      <c r="U46">
+        <v>1865.913</v>
+      </c>
+      <c r="V46">
+        <v>194.08600000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-22.079000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>-113.691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-217.25299999999999</v>
+      </c>
+      <c r="D47">
+        <v>2197.0509999999999</v>
+      </c>
+      <c r="E47">
+        <v>477.48399999999998</v>
+      </c>
+      <c r="F47">
+        <v>789.19</v>
+      </c>
+      <c r="G47">
+        <v>2593.6770000000001</v>
+      </c>
+      <c r="H47">
+        <v>27391.027999999998</v>
+      </c>
+      <c r="I47">
+        <v>163.626</v>
+      </c>
+      <c r="J47">
+        <v>13359.953</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-192.1</v>
+      </c>
+      <c r="M47">
+        <v>-2284.1280000000002</v>
+      </c>
+      <c r="N47">
+        <v>1892.3869999999999</v>
+      </c>
+      <c r="O47">
+        <v>17899.793000000001</v>
+      </c>
+      <c r="P47">
+        <v>13359.953</v>
+      </c>
+      <c r="Q47">
+        <v>-231.02099999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>9491.2350000000006</v>
+      </c>
+      <c r="U47">
+        <v>1634.8920000000001</v>
+      </c>
+      <c r="V47">
+        <v>291.69400000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-412.92200000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="AA47">
+        <v>-217.25299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-145.452</v>
+      </c>
+      <c r="D48">
+        <v>2232.8270000000002</v>
+      </c>
+      <c r="E48">
+        <v>478.58800000000002</v>
+      </c>
+      <c r="F48">
+        <v>847.51700000000005</v>
+      </c>
+      <c r="G48">
+        <v>2677.4169999999999</v>
+      </c>
+      <c r="H48">
+        <v>27263.008000000002</v>
+      </c>
+      <c r="I48">
+        <v>171.87799999999999</v>
+      </c>
+      <c r="J48">
+        <v>13225.319</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1929.384</v>
+      </c>
+      <c r="O48">
+        <v>17850.800999999999</v>
+      </c>
+      <c r="P48">
+        <v>13366.993</v>
+      </c>
+      <c r="Q48">
+        <v>97.028999999999996</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>9412.2070000000003</v>
+      </c>
+      <c r="U48">
+        <v>1731.921</v>
+      </c>
+      <c r="V48">
+        <v>220.56200000000001</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-9.1920000000000002</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-12.119</v>
+      </c>
+      <c r="AA48">
+        <v>-145.452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-181.15899999999999</v>
+      </c>
+      <c r="D49">
+        <v>2167.2959999999998</v>
+      </c>
+      <c r="E49">
+        <v>412.39</v>
+      </c>
+      <c r="F49">
+        <v>792.42399999999998</v>
+      </c>
+      <c r="G49">
+        <v>3347.817</v>
+      </c>
+      <c r="H49">
+        <v>27831.361000000001</v>
+      </c>
+      <c r="I49">
+        <v>201.15</v>
+      </c>
+      <c r="J49">
+        <v>13825.450999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2025.854</v>
+      </c>
+      <c r="O49">
+        <v>18565.858</v>
+      </c>
+      <c r="P49">
+        <v>13825.450999999999</v>
+      </c>
+      <c r="Q49">
+        <v>711.23800000000006</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>9265.5030000000006</v>
+      </c>
+      <c r="U49">
+        <v>2443.1590000000001</v>
+      </c>
+      <c r="V49">
+        <v>375.00599999999997</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>434.41199999999998</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>-181.15899999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>-1223.827</v>
+      </c>
+      <c r="D50">
+        <v>2206.0729999999999</v>
+      </c>
+      <c r="E50">
+        <v>443.67700000000002</v>
+      </c>
+      <c r="F50">
+        <v>810.43100000000004</v>
+      </c>
+      <c r="G50">
+        <v>2507.0920000000001</v>
+      </c>
+      <c r="H50">
+        <v>26284.738000000001</v>
+      </c>
+      <c r="I50">
+        <v>199.62</v>
+      </c>
+      <c r="J50">
+        <v>13589.282999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1925.671</v>
+      </c>
+      <c r="O50">
+        <v>18168.722000000002</v>
+      </c>
+      <c r="P50">
+        <v>13589.282999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-899.65</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>50050</v>
+      </c>
+      <c r="T50">
+        <v>8116.0159999999996</v>
+      </c>
+      <c r="U50">
+        <v>1543.509</v>
+      </c>
+      <c r="V50">
+        <v>22.088999999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-799.25699999999995</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-16.943000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>-1223.827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="D51">
+        <v>2261.9119999999998</v>
+      </c>
+      <c r="E51">
+        <v>475.58100000000002</v>
+      </c>
+      <c r="F51">
+        <v>858.553</v>
+      </c>
+      <c r="G51">
+        <v>2439.2449999999999</v>
+      </c>
+      <c r="H51">
+        <v>26057.874</v>
+      </c>
+      <c r="I51">
+        <v>178.435</v>
+      </c>
+      <c r="J51">
+        <v>13690.699000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-2690</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1870.9880000000001</v>
+      </c>
+      <c r="O51">
+        <v>18178.821</v>
+      </c>
+      <c r="P51">
+        <v>13690.699000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-62.872</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7879.0529999999999</v>
+      </c>
+      <c r="U51">
+        <v>1480.6369999999999</v>
+      </c>
+      <c r="V51">
+        <v>194.65600000000001</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-152.52199999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-6.3230000000000004</v>
+      </c>
+      <c r="AA51">
+        <v>6.5460000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-92.957999999999998</v>
+      </c>
+      <c r="D52">
+        <v>2388.5239999999999</v>
+      </c>
+      <c r="E52">
+        <v>440.32600000000002</v>
+      </c>
+      <c r="F52">
+        <v>901.39599999999996</v>
+      </c>
+      <c r="G52">
+        <v>2210.2399999999998</v>
+      </c>
+      <c r="H52">
+        <v>25722.136999999999</v>
+      </c>
+      <c r="I52">
+        <v>229.59899999999999</v>
+      </c>
+      <c r="J52">
+        <v>13111.960999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2098.1460000000002</v>
+      </c>
+      <c r="O52">
+        <v>17864.971000000001</v>
+      </c>
+      <c r="P52">
+        <v>13111.960999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-201.964</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>7857.1660000000002</v>
+      </c>
+      <c r="U52">
+        <v>1278.673</v>
+      </c>
+      <c r="V52">
+        <v>535.40599999999995</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-601.476</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>6.859</v>
+      </c>
+      <c r="AA52">
+        <v>-99.162000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-28.516999999999999</v>
+      </c>
+      <c r="D53">
+        <v>2370.9989999999998</v>
+      </c>
+      <c r="E53">
+        <v>411.077</v>
+      </c>
+      <c r="F53">
+        <v>882.96</v>
+      </c>
+      <c r="G53">
+        <v>2284.0149999999999</v>
+      </c>
+      <c r="H53">
+        <v>25658.834999999999</v>
+      </c>
+      <c r="I53">
+        <v>202.792</v>
+      </c>
+      <c r="J53">
+        <v>13034.518</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2161.4699999999998</v>
+      </c>
+      <c r="O53">
+        <v>17831.664000000001</v>
+      </c>
+      <c r="P53">
+        <v>13034.518</v>
+      </c>
+      <c r="Q53">
+        <v>96.73</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>7827.1710000000003</v>
+      </c>
+      <c r="U53">
+        <v>1375.403</v>
+      </c>
+      <c r="V53">
+        <v>365.69499999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-137.88399999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>5.5590000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>-22.312999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-56.805</v>
+      </c>
+      <c r="D54">
+        <v>2423.5639999999999</v>
+      </c>
+      <c r="E54">
+        <v>488.21699999999998</v>
+      </c>
+      <c r="F54">
+        <v>908.03800000000001</v>
+      </c>
+      <c r="G54">
+        <v>2719.4389999999999</v>
+      </c>
+      <c r="H54">
+        <v>26084.61</v>
+      </c>
+      <c r="I54">
+        <v>144.99</v>
+      </c>
+      <c r="J54">
+        <v>13447.23</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2215.328</v>
+      </c>
+      <c r="O54">
+        <v>18224.115000000002</v>
+      </c>
+      <c r="P54">
+        <v>13447.23</v>
+      </c>
+      <c r="Q54">
+        <v>428.26600000000002</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>50800</v>
+      </c>
+      <c r="T54">
+        <v>7860.4949999999999</v>
+      </c>
+      <c r="U54">
+        <v>1803.6690000000001</v>
+      </c>
+      <c r="V54">
+        <v>214.691</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>402.17399999999998</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-1.8919999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>-56.805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>102.652</v>
+      </c>
+      <c r="D55">
+        <v>2535.4229999999998</v>
+      </c>
+      <c r="E55">
+        <v>492.53500000000003</v>
+      </c>
+      <c r="F55">
+        <v>980.303</v>
+      </c>
+      <c r="G55">
+        <v>1970.63</v>
+      </c>
+      <c r="H55">
+        <v>25350.708999999999</v>
+      </c>
+      <c r="I55">
+        <v>220.523</v>
+      </c>
+      <c r="J55">
+        <v>12930.727999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-1735.125</v>
+      </c>
+      <c r="M55">
+        <v>-508.9</v>
+      </c>
+      <c r="N55">
+        <v>2159.5639999999999</v>
+      </c>
+      <c r="O55">
+        <v>17527.863000000001</v>
+      </c>
+      <c r="P55">
+        <v>12930.727999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-688.93299999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7822.8459999999995</v>
+      </c>
+      <c r="U55">
+        <v>1114.7360000000001</v>
+      </c>
+      <c r="V55">
+        <v>290.79500000000002</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-764.68799999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-22.678999999999998</v>
+      </c>
+      <c r="AA55">
+        <v>102.652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>110.008</v>
+      </c>
+      <c r="D56">
+        <v>2485.288</v>
+      </c>
+      <c r="E56">
+        <v>473.92200000000003</v>
+      </c>
+      <c r="F56">
+        <v>962.04100000000005</v>
+      </c>
+      <c r="G56">
+        <v>2166.3150000000001</v>
+      </c>
+      <c r="H56">
+        <v>25572.303</v>
+      </c>
+      <c r="I56">
+        <v>253.47499999999999</v>
+      </c>
+      <c r="J56">
+        <v>12606.52</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2560.3159999999998</v>
+      </c>
+      <c r="O56">
+        <v>17630.775000000001</v>
+      </c>
+      <c r="P56">
+        <v>12923.714</v>
+      </c>
+      <c r="Q56">
+        <v>250.40100000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7941.5280000000002</v>
+      </c>
+      <c r="U56">
+        <v>1365.1369999999999</v>
+      </c>
+      <c r="V56">
+        <v>512.82899999999995</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-74.831999999999994</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-12.18</v>
+      </c>
+      <c r="AA56">
+        <v>110.008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-20.27</v>
+      </c>
+      <c r="D57">
+        <v>2386.69</v>
+      </c>
+      <c r="E57">
+        <v>433.85300000000001</v>
+      </c>
+      <c r="F57">
+        <v>891.94899999999996</v>
+      </c>
+      <c r="G57">
+        <v>1991.057</v>
+      </c>
+      <c r="H57">
+        <v>25448.486000000001</v>
+      </c>
+      <c r="I57">
+        <v>266.69600000000003</v>
+      </c>
+      <c r="J57">
+        <v>11723.655000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3369.3139999999999</v>
+      </c>
+      <c r="O57">
+        <v>17549.849999999999</v>
+      </c>
+      <c r="P57">
+        <v>12915.197</v>
+      </c>
+      <c r="Q57">
+        <v>-51.71</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7898.6360000000004</v>
+      </c>
+      <c r="U57">
+        <v>1313.4269999999999</v>
+      </c>
+      <c r="V57">
+        <v>219.19</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-79.558999999999997</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>52.579000000000001</v>
+      </c>
+      <c r="AA57">
+        <v>-20.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-342.26299999999998</v>
+      </c>
+      <c r="D58">
+        <v>2291.1489999999999</v>
+      </c>
+      <c r="E58">
+        <v>473.34500000000003</v>
+      </c>
+      <c r="F58">
+        <v>878.99300000000005</v>
+      </c>
+      <c r="G58">
+        <v>3027.16</v>
+      </c>
+      <c r="H58">
+        <v>26593.914000000001</v>
+      </c>
+      <c r="I58">
+        <v>164.25200000000001</v>
+      </c>
+      <c r="J58">
+        <v>12805.285</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3407.9250000000002</v>
+      </c>
+      <c r="O58">
+        <v>18965.64</v>
+      </c>
+      <c r="P58">
+        <v>14050.605</v>
+      </c>
+      <c r="Q58">
+        <v>400.28800000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>52100</v>
+      </c>
+      <c r="T58">
+        <v>7628.2740000000003</v>
+      </c>
+      <c r="U58">
+        <v>1713.7149999999999</v>
+      </c>
+      <c r="V58">
+        <v>107.85599999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>1227.1559999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-603.46100000000001</v>
+      </c>
+      <c r="AA58">
+        <v>-342.26299999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>169.85</v>
+      </c>
+      <c r="D59">
+        <v>2231.1840000000002</v>
+      </c>
+      <c r="E59">
+        <v>461.75099999999998</v>
+      </c>
+      <c r="F59">
+        <v>880.12400000000002</v>
+      </c>
+      <c r="G59">
+        <v>2956.607</v>
+      </c>
+      <c r="H59">
+        <v>26798.447</v>
+      </c>
+      <c r="I59">
+        <v>187.32499999999999</v>
+      </c>
+      <c r="J59">
+        <v>14551.81</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-1318.626</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1895.761</v>
+      </c>
+      <c r="O59">
+        <v>19145.412</v>
+      </c>
+      <c r="P59">
+        <v>14551.81</v>
+      </c>
+      <c r="Q59">
+        <v>481.82</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7653.0349999999999</v>
+      </c>
+      <c r="U59">
+        <v>2195.5349999999999</v>
+      </c>
+      <c r="V59">
+        <v>175.648</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>189.22300000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>411.03199999999998</v>
+      </c>
+      <c r="AA59">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>97.459000000000003</v>
+      </c>
+      <c r="D60">
+        <v>2281.587</v>
+      </c>
+      <c r="E60">
+        <v>467.96</v>
+      </c>
+      <c r="F60">
+        <v>929.33799999999997</v>
+      </c>
+      <c r="G60">
+        <v>3267.0219999999999</v>
+      </c>
+      <c r="H60">
+        <v>27149.587</v>
+      </c>
+      <c r="I60">
+        <v>174.24600000000001</v>
+      </c>
+      <c r="J60">
+        <v>12495.209000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2790.7950000000001</v>
+      </c>
+      <c r="O60">
+        <v>17967.757000000001</v>
+      </c>
+      <c r="P60">
+        <v>13382.237999999999</v>
+      </c>
+      <c r="Q60">
+        <v>146.80500000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>9181.83</v>
+      </c>
+      <c r="U60">
+        <v>2342.34</v>
+      </c>
+      <c r="V60">
+        <v>271.62099999999998</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>164.636</v>
+      </c>
+      <c r="Y60">
+        <v>12</v>
+      </c>
+      <c r="Z60">
+        <v>-15.78</v>
+      </c>
+      <c r="AA60">
+        <v>97.459000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>66.424999999999997</v>
+      </c>
+      <c r="D61">
+        <v>2182.5239999999999</v>
+      </c>
+      <c r="E61">
+        <v>470.84199999999998</v>
+      </c>
+      <c r="F61">
+        <v>882.91600000000005</v>
+      </c>
+      <c r="G61">
+        <v>2582.2739999999999</v>
+      </c>
+      <c r="H61">
+        <v>26680.266</v>
+      </c>
+      <c r="I61">
+        <v>168.65100000000001</v>
+      </c>
+      <c r="J61">
+        <v>12821.037</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1952.855</v>
+      </c>
+      <c r="O61">
+        <v>17435.544000000002</v>
+      </c>
+      <c r="P61">
+        <v>12821.037</v>
+      </c>
+      <c r="Q61">
+        <v>-534.54499999999996</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9244.7219999999998</v>
+      </c>
+      <c r="U61">
+        <v>1807.7950000000001</v>
+      </c>
+      <c r="V61">
+        <v>290.51100000000002</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-591.87</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>183.07400000000001</v>
+      </c>
+      <c r="AA61">
+        <v>66.424999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-781.45399999999995</v>
+      </c>
+      <c r="D62">
+        <v>2095.9369999999999</v>
+      </c>
+      <c r="E62">
+        <v>480.55900000000003</v>
+      </c>
+      <c r="F62">
+        <v>872.31399999999996</v>
+      </c>
+      <c r="G62">
+        <v>2408.7489999999998</v>
+      </c>
+      <c r="H62">
+        <v>25215.178</v>
+      </c>
+      <c r="I62">
+        <v>182.03100000000001</v>
+      </c>
+      <c r="J62">
+        <v>12368.311</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2237.951</v>
+      </c>
+      <c r="O62">
+        <v>17444.501</v>
+      </c>
+      <c r="P62">
+        <v>12696.753000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-137.483</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>50500</v>
+      </c>
+      <c r="T62">
+        <v>7770.6769999999997</v>
+      </c>
+      <c r="U62">
+        <v>1670.3119999999999</v>
+      </c>
+      <c r="V62">
+        <v>267.29899999999998</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-19.867999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-2.7759999999999998</v>
+      </c>
+      <c r="AA62">
+        <v>-781.45399999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>66.799000000000007</v>
+      </c>
+      <c r="D63">
+        <v>2108.6370000000002</v>
+      </c>
+      <c r="E63">
+        <v>452.75099999999998</v>
+      </c>
+      <c r="F63">
+        <v>907.97299999999996</v>
+      </c>
+      <c r="G63">
+        <v>2401.6439999999998</v>
+      </c>
+      <c r="H63">
+        <v>25497.29</v>
+      </c>
+      <c r="I63">
+        <v>183.77699999999999</v>
+      </c>
+      <c r="J63">
+        <v>12686.380999999999</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-2.661</v>
+      </c>
+      <c r="N63">
+        <v>2088.3110000000001</v>
+      </c>
+      <c r="O63">
+        <v>17626.03</v>
+      </c>
+      <c r="P63">
+        <v>12929.281000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-5.407</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7871.26</v>
+      </c>
+      <c r="U63">
+        <v>1664.905</v>
+      </c>
+      <c r="V63">
+        <v>224.596</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>200.96199999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AA63">
+        <v>66.799000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>474.35300000000001</v>
+      </c>
+      <c r="D64">
+        <v>2168.7069999999999</v>
+      </c>
+      <c r="E64">
+        <v>443.90300000000002</v>
+      </c>
+      <c r="F64">
+        <v>956.53300000000002</v>
+      </c>
+      <c r="G64">
+        <v>3193.7869999999998</v>
+      </c>
+      <c r="H64">
+        <v>26549.055</v>
+      </c>
+      <c r="I64">
+        <v>161.41999999999999</v>
+      </c>
+      <c r="J64">
+        <v>12364.92</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1917.779</v>
+      </c>
+      <c r="O64">
+        <v>17015.921999999999</v>
+      </c>
+      <c r="P64">
+        <v>12364.92</v>
+      </c>
+      <c r="Q64">
+        <v>838.35</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9533.1329999999998</v>
+      </c>
+      <c r="U64">
+        <v>2503.2550000000001</v>
+      </c>
+      <c r="V64">
+        <v>389.05</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>451.68200000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>541.80799999999999</v>
+      </c>
+      <c r="AA64">
+        <v>474.35300000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>535.61900000000003</v>
+      </c>
+      <c r="D65">
+        <v>2415.799</v>
+      </c>
+      <c r="E65">
+        <v>492.42599999999999</v>
+      </c>
+      <c r="F65">
+        <v>1089.596</v>
+      </c>
+      <c r="G65">
+        <v>2214.348</v>
+      </c>
+      <c r="H65">
+        <v>27705.286</v>
+      </c>
+      <c r="I65">
+        <v>232.49</v>
+      </c>
+      <c r="J65">
+        <v>12786.42</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2130.6350000000002</v>
+      </c>
+      <c r="O65">
+        <v>17781.577000000001</v>
+      </c>
+      <c r="P65">
+        <v>12786.42</v>
+      </c>
+      <c r="Q65">
+        <v>-1057.097</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>9923.7090000000007</v>
+      </c>
+      <c r="U65">
+        <v>1446.1579999999999</v>
+      </c>
+      <c r="V65">
+        <v>435.35899999999998</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-334.93200000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>14.599</v>
+      </c>
+      <c r="AA65">
+        <v>535.61900000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>24.669</v>
+      </c>
+      <c r="D66">
+        <v>2364.828</v>
+      </c>
+      <c r="E66">
+        <v>542.92399999999998</v>
+      </c>
+      <c r="F66">
+        <v>1005.357</v>
+      </c>
+      <c r="G66">
+        <v>2229.587</v>
+      </c>
+      <c r="H66">
+        <v>28173.300999999999</v>
+      </c>
+      <c r="I66">
+        <v>250.477</v>
+      </c>
+      <c r="J66">
+        <v>12979.22</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2293.4209999999998</v>
+      </c>
+      <c r="O66">
+        <v>18149.849999999999</v>
+      </c>
+      <c r="P66">
+        <v>12987.594999999999</v>
+      </c>
+      <c r="Q66">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>58000</v>
+      </c>
+      <c r="T66">
+        <v>10023.450999999999</v>
+      </c>
+      <c r="U66">
+        <v>1446.5809999999999</v>
+      </c>
+      <c r="V66">
+        <v>484.96699999999998</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>201.71</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-3.0169999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>24.669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>206.41200000000001</v>
+      </c>
+      <c r="D67">
+        <v>2617.3510000000001</v>
+      </c>
+      <c r="E67">
+        <v>493.76499999999999</v>
+      </c>
+      <c r="F67">
+        <v>1185.1959999999999</v>
+      </c>
+      <c r="G67">
+        <v>2172.7179999999998</v>
+      </c>
+      <c r="H67">
+        <v>28303.092000000001</v>
+      </c>
+      <c r="I67">
+        <v>204.83500000000001</v>
+      </c>
+      <c r="J67">
+        <v>13100.715</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2124.7640000000001</v>
+      </c>
+      <c r="O67">
+        <v>18106.606</v>
+      </c>
+      <c r="P67">
+        <v>13100.715</v>
+      </c>
+      <c r="Q67">
+        <v>-51.137</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>10196.486000000001</v>
+      </c>
+      <c r="U67">
+        <v>1395.444</v>
+      </c>
+      <c r="V67">
+        <v>405.435</v>
+      </c>
+      <c r="W67">
+        <v>-63.182000000000002</v>
+      </c>
+      <c r="X67">
+        <v>10.465999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-3.5</v>
+      </c>
+      <c r="AA67">
+        <v>206.41200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>209.864</v>
+      </c>
+      <c r="D68">
+        <v>2552.8409999999999</v>
+      </c>
+      <c r="E68">
+        <v>469.12599999999998</v>
+      </c>
+      <c r="F68">
+        <v>1131.5170000000001</v>
+      </c>
+      <c r="G68">
+        <v>2485.1309999999999</v>
+      </c>
+      <c r="H68">
+        <v>28542.931</v>
+      </c>
+      <c r="I68">
+        <v>206.14400000000001</v>
+      </c>
+      <c r="J68">
+        <v>12728.222</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2679.5680000000002</v>
+      </c>
+      <c r="O68">
+        <v>18254.593000000001</v>
+      </c>
+      <c r="P68">
+        <v>13200.812</v>
+      </c>
+      <c r="Q68">
+        <v>361.61799999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>10288.338</v>
+      </c>
+      <c r="U68">
+        <v>1757.0619999999999</v>
+      </c>
+      <c r="V68">
+        <v>533.69100000000003</v>
+      </c>
+      <c r="W68">
+        <v>-63.247</v>
+      </c>
+      <c r="X68">
+        <v>-43.411000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>298.72699999999998</v>
+      </c>
+      <c r="AA68">
+        <v>209.864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>148.363</v>
+      </c>
+      <c r="D69">
+        <v>2727.7939999999999</v>
+      </c>
+      <c r="E69">
+        <v>515.423</v>
+      </c>
+      <c r="F69">
+        <v>1232.1030000000001</v>
+      </c>
+      <c r="G69">
+        <v>2794.5360000000001</v>
+      </c>
+      <c r="H69">
+        <v>29101.89</v>
+      </c>
+      <c r="I69">
+        <v>242.60400000000001</v>
+      </c>
+      <c r="J69">
+        <v>13029.307000000001</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2735.76</v>
+      </c>
+      <c r="O69">
+        <v>18717.812999999998</v>
+      </c>
+      <c r="P69">
+        <v>13495.682000000001</v>
+      </c>
+      <c r="Q69">
+        <v>229.626</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>10384.076999999999</v>
+      </c>
+      <c r="U69">
+        <v>1986.6880000000001</v>
+      </c>
+      <c r="V69">
+        <v>572.78300000000002</v>
+      </c>
+      <c r="W69">
+        <v>-63.296999999999997</v>
+      </c>
+      <c r="X69">
+        <v>190.965</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1.1479999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>148.363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1387.413</v>
+      </c>
+      <c r="D70">
+        <v>2497.451</v>
+      </c>
+      <c r="E70">
+        <v>542.27300000000002</v>
+      </c>
+      <c r="F70">
+        <v>1055.5409999999999</v>
+      </c>
+      <c r="G70">
+        <v>2376.355</v>
+      </c>
+      <c r="H70">
+        <v>29160.042000000001</v>
+      </c>
+      <c r="I70">
+        <v>255.02799999999999</v>
+      </c>
+      <c r="J70">
+        <v>12751.052</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3138.297</v>
+      </c>
+      <c r="O70">
+        <v>17469.14</v>
+      </c>
+      <c r="P70">
+        <v>12909.093999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-486.69299999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>60000</v>
+      </c>
+      <c r="T70">
+        <v>11690.902</v>
+      </c>
+      <c r="U70">
+        <v>1499.9949999999999</v>
+      </c>
+      <c r="V70">
+        <v>694.50199999999995</v>
+      </c>
+      <c r="W70">
+        <v>-62.287999999999997</v>
+      </c>
+      <c r="X70">
+        <v>-726.798</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-9.5950000000000006</v>
+      </c>
+      <c r="AA70">
+        <v>1387.413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>223.44399999999999</v>
+      </c>
+      <c r="D71">
+        <v>2718.9569999999999</v>
+      </c>
+      <c r="E71">
+        <v>505.59100000000001</v>
+      </c>
+      <c r="F71">
+        <v>1187.027</v>
+      </c>
+      <c r="G71">
+        <v>2392.7130000000002</v>
+      </c>
+      <c r="H71">
+        <v>29298.27</v>
+      </c>
+      <c r="I71">
+        <v>253.39099999999999</v>
+      </c>
+      <c r="J71">
+        <v>12742.861000000001</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2.2650000000000001</v>
+      </c>
+      <c r="N71">
+        <v>3586.8879999999999</v>
+      </c>
+      <c r="O71">
+        <v>17819.219000000001</v>
+      </c>
+      <c r="P71">
+        <v>13282.468999999999</v>
+      </c>
+      <c r="Q71">
+        <v>25.407</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>11479.050999999999</v>
+      </c>
+      <c r="U71">
+        <v>1525.402</v>
+      </c>
+      <c r="V71">
+        <v>577.66399999999999</v>
+      </c>
+      <c r="W71">
+        <v>-67.998999999999995</v>
+      </c>
+      <c r="X71">
+        <v>-117.05</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.5030000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>223.44399999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>123.777</v>
+      </c>
+      <c r="D72">
+        <v>2754.1350000000002</v>
+      </c>
+      <c r="E72">
+        <v>497.35</v>
+      </c>
+      <c r="F72">
+        <v>1189.2809999999999</v>
+      </c>
+      <c r="G72">
+        <v>2083.116</v>
+      </c>
+      <c r="H72">
+        <v>28977.16</v>
+      </c>
+      <c r="I72">
+        <v>268.14</v>
+      </c>
+      <c r="J72">
+        <v>13513.341</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3064.7930000000001</v>
+      </c>
+      <c r="O72">
+        <v>18050.251</v>
+      </c>
+      <c r="P72">
+        <v>13513.341</v>
+      </c>
+      <c r="Q72">
+        <v>-252.53</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>10926.909</v>
+      </c>
+      <c r="U72">
+        <v>1272.8720000000001</v>
+      </c>
+      <c r="V72">
+        <v>515.48699999999997</v>
+      </c>
+      <c r="W72">
+        <v>-65.334999999999994</v>
+      </c>
+      <c r="X72">
+        <v>-521.101</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>200</v>
+      </c>
+      <c r="AA72">
+        <v>123.777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>142.87799999999999</v>
+      </c>
+      <c r="D73">
+        <v>2922.6219999999998</v>
+      </c>
+      <c r="E73">
+        <v>546.64599999999996</v>
+      </c>
+      <c r="F73">
+        <v>1241.876</v>
+      </c>
+      <c r="G73">
+        <v>2208.0239999999999</v>
+      </c>
+      <c r="H73">
+        <v>29973.514999999999</v>
+      </c>
+      <c r="I73">
+        <v>301.00799999999998</v>
+      </c>
+      <c r="J73">
+        <v>14663.972</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2977.59</v>
+      </c>
+      <c r="O73">
+        <v>19133.996999999999</v>
+      </c>
+      <c r="P73">
+        <v>14663.972</v>
+      </c>
+      <c r="Q73">
+        <v>29.805</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>10839.518</v>
+      </c>
+      <c r="U73">
+        <v>1302.6769999999999</v>
+      </c>
+      <c r="V73">
+        <v>302.315</v>
+      </c>
+      <c r="W73">
+        <v>-63.960999999999999</v>
+      </c>
+      <c r="X73">
+        <v>845.548</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>283.90300000000002</v>
+      </c>
+      <c r="AA73">
+        <v>142.87799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-23.327000000000002</v>
+      </c>
+      <c r="D74">
+        <v>2941.89</v>
+      </c>
+      <c r="E74">
+        <v>657.20600000000002</v>
+      </c>
+      <c r="F74">
+        <v>1226.037</v>
+      </c>
+      <c r="G74">
+        <v>2526.7779999999998</v>
+      </c>
+      <c r="H74">
+        <v>30210.705999999998</v>
+      </c>
+      <c r="I74">
+        <v>302.57799999999997</v>
+      </c>
+      <c r="J74">
+        <v>15088.004999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2948.8820000000001</v>
+      </c>
+      <c r="O74">
+        <v>19638.665000000001</v>
+      </c>
+      <c r="P74">
+        <v>15131.415999999999</v>
+      </c>
+      <c r="Q74">
+        <v>224.08500000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>66000</v>
+      </c>
+      <c r="T74">
+        <v>10572.040999999999</v>
+      </c>
+      <c r="U74">
+        <v>1526.7619999999999</v>
+      </c>
+      <c r="V74">
+        <v>327.07299999999998</v>
+      </c>
+      <c r="W74">
+        <v>-63.296999999999997</v>
+      </c>
+      <c r="X74">
+        <v>181.83699999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-51.448</v>
+      </c>
+      <c r="AA74">
+        <v>-23.327000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>31.297000000000001</v>
+      </c>
+      <c r="D75">
+        <v>3065.1559999999999</v>
+      </c>
+      <c r="E75">
+        <v>602.60199999999998</v>
+      </c>
+      <c r="F75">
+        <v>1314.5360000000001</v>
+      </c>
+      <c r="G75">
+        <v>2207.1350000000002</v>
+      </c>
+      <c r="H75">
+        <v>31146.920999999998</v>
+      </c>
+      <c r="I75">
+        <v>336.58600000000001</v>
+      </c>
+      <c r="J75">
+        <v>14730.829</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-289.767</v>
+      </c>
+      <c r="M75">
+        <v>-850</v>
+      </c>
+      <c r="N75">
+        <v>2812.6779999999999</v>
+      </c>
+      <c r="O75">
+        <v>19829.718000000001</v>
+      </c>
+      <c r="P75">
+        <v>15307.273999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-303.358</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>11317.203</v>
+      </c>
+      <c r="U75">
+        <v>1223.404</v>
+      </c>
+      <c r="V75">
+        <v>399.78199999999998</v>
+      </c>
+      <c r="W75">
+        <v>-69.799000000000007</v>
+      </c>
+      <c r="X75">
+        <v>24.850999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>510.95100000000002</v>
+      </c>
+      <c r="Z75">
+        <v>22.292000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>31.297000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>43.405000000000001</v>
+      </c>
+      <c r="D76">
+        <v>3112.105</v>
+      </c>
+      <c r="E76">
+        <v>562.77200000000005</v>
+      </c>
+      <c r="F76">
+        <v>1318.423</v>
+      </c>
+      <c r="G76">
+        <v>2040.0340000000001</v>
+      </c>
+      <c r="H76">
+        <v>30813.715</v>
+      </c>
+      <c r="I76">
+        <v>277.59100000000001</v>
+      </c>
+      <c r="J76">
+        <v>14661.695</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2786.5390000000002</v>
+      </c>
+      <c r="O76">
+        <v>19758.407999999999</v>
+      </c>
+      <c r="P76">
+        <v>15269.9</v>
+      </c>
+      <c r="Q76">
+        <v>-62.813000000000002</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>11055.307000000001</v>
+      </c>
+      <c r="U76">
+        <v>1160.5909999999999</v>
+      </c>
+      <c r="V76">
+        <v>568.05100000000004</v>
+      </c>
+      <c r="W76">
+        <v>-68.415999999999997</v>
+      </c>
+      <c r="X76">
+        <v>-482.63</v>
+      </c>
+      <c r="Y76">
+        <v>529.17100000000005</v>
+      </c>
+      <c r="Z76">
+        <v>-12.961</v>
+      </c>
+      <c r="AA76">
+        <v>43.405000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-37.133000000000003</v>
+      </c>
+      <c r="D77">
+        <v>3206.4810000000002</v>
+      </c>
+      <c r="E77">
+        <v>550.34500000000003</v>
+      </c>
+      <c r="F77">
+        <v>1377.732</v>
+      </c>
+      <c r="G77">
+        <v>2880.7460000000001</v>
+      </c>
+      <c r="H77">
+        <v>31168.870999999999</v>
+      </c>
+      <c r="I77">
+        <v>253.637</v>
+      </c>
+      <c r="J77">
+        <v>14943.874</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3293.2440000000001</v>
+      </c>
+      <c r="O77">
+        <v>20542.276999999998</v>
+      </c>
+      <c r="P77">
+        <v>15531.933000000001</v>
+      </c>
+      <c r="Q77">
+        <v>72.977999999999994</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10626.593999999999</v>
+      </c>
+      <c r="U77">
+        <v>1233.569</v>
+      </c>
+      <c r="V77">
+        <v>388.27499999999998</v>
+      </c>
+      <c r="W77">
+        <v>-66.947999999999993</v>
+      </c>
+      <c r="X77">
+        <v>-162.107</v>
+      </c>
+      <c r="Y77">
+        <v>518.36500000000001</v>
+      </c>
+      <c r="Z77">
+        <v>9.0589999999999993</v>
+      </c>
+      <c r="AA77">
+        <v>-37.133000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>2011.577</v>
+      </c>
+      <c r="D78">
+        <v>3079.0430000000001</v>
+      </c>
+      <c r="E78">
+        <v>612.71699999999998</v>
+      </c>
+      <c r="F78">
+        <v>1285.492</v>
+      </c>
+      <c r="G78">
+        <v>4007.6930000000002</v>
+      </c>
+      <c r="H78">
+        <v>33876.356</v>
+      </c>
+      <c r="I78">
+        <v>235.43700000000001</v>
+      </c>
+      <c r="J78">
+        <v>11199.904</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3191.4229999999998</v>
+      </c>
+      <c r="O78">
+        <v>21108.391</v>
+      </c>
+      <c r="P78">
+        <v>15640.504000000001</v>
+      </c>
+      <c r="Q78">
+        <v>1096.0350000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>63000</v>
+      </c>
+      <c r="T78">
+        <v>12767.965</v>
+      </c>
+      <c r="U78">
+        <v>2329.6039999999998</v>
+      </c>
+      <c r="V78">
+        <v>454.29300000000001</v>
+      </c>
+      <c r="W78">
+        <v>-66.125</v>
+      </c>
+      <c r="X78">
+        <v>-3909.7080000000001</v>
+      </c>
+      <c r="Y78">
+        <v>4345.152</v>
+      </c>
+      <c r="Z78">
+        <v>0.433</v>
+      </c>
+      <c r="AA78">
+        <v>2011.577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>806.86900000000003</v>
+      </c>
+      <c r="D79">
+        <v>2154.6309999999999</v>
+      </c>
+      <c r="E79">
+        <v>454.82600000000002</v>
+      </c>
+      <c r="F79">
+        <v>814.65300000000002</v>
+      </c>
+      <c r="G79">
+        <v>7597.9290000000001</v>
+      </c>
+      <c r="H79">
+        <v>39118.904999999999</v>
+      </c>
+      <c r="I79">
+        <v>202.73500000000001</v>
+      </c>
+      <c r="J79">
+        <v>11875.348</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-846.72400000000005</v>
+      </c>
+      <c r="N79">
+        <v>2626.2469999999998</v>
+      </c>
+      <c r="O79">
+        <v>25697.261999999999</v>
+      </c>
+      <c r="P79">
+        <v>20537.669999999998</v>
+      </c>
+      <c r="Q79">
+        <v>3686.8130000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>13421.643</v>
+      </c>
+      <c r="U79">
+        <v>6016.4170000000004</v>
+      </c>
+      <c r="V79">
+        <v>-422.93700000000001</v>
+      </c>
+      <c r="W79">
+        <v>-73.903999999999996</v>
+      </c>
+      <c r="X79">
+        <v>1744.7529999999999</v>
+      </c>
+      <c r="Y79">
+        <v>8552.4390000000003</v>
+      </c>
+      <c r="Z79">
+        <v>-20.222999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>806.86900000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-857.25699999999995</v>
+      </c>
+      <c r="D80">
+        <v>273.61200000000002</v>
+      </c>
+      <c r="E80">
+        <v>287.065</v>
+      </c>
+      <c r="F80">
+        <v>-84.561000000000007</v>
+      </c>
+      <c r="G80">
+        <v>6370.768</v>
+      </c>
+      <c r="H80">
+        <v>37471.285000000003</v>
+      </c>
+      <c r="I80">
+        <v>122.428</v>
+      </c>
+      <c r="J80">
+        <v>11449.561</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2575.1280000000002</v>
+      </c>
+      <c r="O80">
+        <v>25063.707999999999</v>
+      </c>
+      <c r="P80">
+        <v>20131.173999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-1180.912</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>12407.576999999999</v>
+      </c>
+      <c r="U80">
+        <v>4835.5050000000001</v>
+      </c>
+      <c r="V80">
+        <v>-662.56500000000005</v>
+      </c>
+      <c r="W80">
+        <v>-1.2330000000000001</v>
+      </c>
+      <c r="X80">
+        <v>-496.93</v>
+      </c>
+      <c r="Y80">
+        <v>8537.6820000000007</v>
+      </c>
+      <c r="Z80">
+        <v>45.13</v>
+      </c>
+      <c r="AA80">
+        <v>-857.25699999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-534.73099999999999</v>
+      </c>
+      <c r="D81">
+        <v>1093.6030000000001</v>
+      </c>
+      <c r="E81">
+        <v>328.41300000000001</v>
+      </c>
+      <c r="F81">
+        <v>396.40300000000002</v>
+      </c>
+      <c r="G81">
+        <v>6186.2809999999999</v>
+      </c>
+      <c r="H81">
+        <v>37004.775000000001</v>
+      </c>
+      <c r="I81">
+        <v>150.44499999999999</v>
+      </c>
+      <c r="J81">
+        <v>11519.73</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2766.7840000000001</v>
+      </c>
+      <c r="O81">
+        <v>25244.143</v>
+      </c>
+      <c r="P81">
+        <v>20196.280999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-241.63300000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11760.632</v>
+      </c>
+      <c r="U81">
+        <v>4593.8720000000003</v>
+      </c>
+      <c r="V81">
+        <v>-164.10300000000001</v>
+      </c>
+      <c r="W81">
+        <v>-1.2330000000000001</v>
+      </c>
+      <c r="X81">
+        <v>-7.9850000000000003</v>
+      </c>
+      <c r="Y81">
+        <v>8531.8130000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-32.439</v>
+      </c>
+      <c r="AA81">
+        <v>-534.73099999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>-447.60500000000002</v>
+      </c>
+      <c r="D82">
+        <v>1395.287</v>
+      </c>
+      <c r="E82">
+        <v>316.50200000000001</v>
+      </c>
+      <c r="F82">
+        <v>582.87599999999998</v>
+      </c>
+      <c r="G82">
+        <v>5950.6589999999997</v>
+      </c>
+      <c r="H82">
+        <v>36494.934000000001</v>
+      </c>
+      <c r="I82">
+        <v>142.523</v>
+      </c>
+      <c r="J82">
+        <v>12463.683999999999</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1856.5830000000001</v>
+      </c>
+      <c r="O82">
+        <v>25248.484</v>
+      </c>
+      <c r="P82">
+        <v>21132.278999999999</v>
+      </c>
+      <c r="Q82">
+        <v>507.76499999999999</v>
+      </c>
+      <c r="R82">
+        <v>44196</v>
+      </c>
+      <c r="S82">
+        <v>45000</v>
+      </c>
+      <c r="T82">
         <v>11246.45</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5101.6369999999997</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-243.43799999999999</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-1.236</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>863.58900000000006</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>8524.4040000000005</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-25.433</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>-447.60500000000002</v>
       </c>
     </row>
